--- a/backend/django_subject_manager/input/angol.xlsx
+++ b/backend/django_subject_manager/input/angol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D\Andrasjó\tantervi hálók 2009-2010\tantervi hálók 2016\új mintatantervek\2023 tavasz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathearnoldattila/Arnold/egyetem/6felev/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969AAD1C-BCB9-4877-914F-41CEA36C503A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20E47E5-6BB0-844F-81D3-A92DFCFE4F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28020" yWindow="-5900" windowWidth="24240" windowHeight="13300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Angol BSc" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="163">
   <si>
-    <t>Course</t>
-  </si>
-  <si>
-    <t>Előfeltétel 1</t>
-  </si>
-  <si>
     <t>Computer systems</t>
   </si>
   <si>
@@ -283,30 +277,9 @@
     <t>IP-18fKVBGTE</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Lecture (L)</t>
-  </si>
-  <si>
-    <t>Exam €</t>
-  </si>
-  <si>
-    <t>Practice (Pr</t>
-  </si>
-  <si>
     <t>Practice Grade (PG)</t>
   </si>
   <si>
-    <t>Consultation</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>Semester</t>
-  </si>
-  <si>
     <t>1st Semester</t>
   </si>
   <si>
@@ -509,6 +482,33 @@
   </si>
   <si>
     <t>Applied Data Science</t>
+  </si>
+  <si>
+    <t>Előfeltétel(ek)</t>
+  </si>
+  <si>
+    <t>Kód</t>
+  </si>
+  <si>
+    <t>Tanegység</t>
+  </si>
+  <si>
+    <t>Előadás</t>
+  </si>
+  <si>
+    <t>Számonkérés</t>
+  </si>
+  <si>
+    <t>Gyakorlat</t>
+  </si>
+  <si>
+    <t>Konzultáció</t>
+  </si>
+  <si>
+    <t>Kredit</t>
+  </si>
+  <si>
+    <t>Ajánlott félév</t>
   </si>
 </sst>
 </file>
@@ -1135,21 +1135,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1186,6 +1171,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hivatkozás" xfId="3" builtinId="8"/>
@@ -1499,140 +1499,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" customWidth="1"/>
-    <col min="6" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" customWidth="1"/>
-    <col min="10" max="10" width="3.85546875" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="5" width="3.5" customWidth="1"/>
+    <col min="6" max="7" width="5.5" customWidth="1"/>
+    <col min="8" max="8" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" customWidth="1"/>
+    <col min="10" max="10" width="3.83203125" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="8.5" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" customWidth="1"/>
+    <col min="17" max="17" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
+    <row r="3" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="77"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="Q6" s="8"/>
     </row>
-    <row r="7" spans="1:17" ht="98.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="37" t="s">
+      <c r="N7" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="O7" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="P7" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="L7" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="M7" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="N7" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="O7" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="P7" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" s="53"/>
       <c r="D8" s="41">
         <v>2</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F8" s="41">
         <v>0</v>
@@ -1641,7 +1640,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I8" s="41">
         <v>1</v>
@@ -1653,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="42" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="M8" s="41"/>
       <c r="N8" s="41"/>
@@ -1661,19 +1660,19 @@
       <c r="P8" s="41"/>
       <c r="Q8" s="33"/>
     </row>
-    <row r="9" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="16">
         <v>2</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F9" s="16">
         <v>0</v>
@@ -1682,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I9" s="16">
         <v>1</v>
@@ -1694,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
@@ -1702,19 +1701,19 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
     </row>
-    <row r="10" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="16">
         <v>2</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F10" s="16">
         <v>0</v>
@@ -1723,7 +1722,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I10" s="16">
         <v>0</v>
@@ -1735,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
@@ -1743,19 +1742,19 @@
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
     </row>
-    <row r="11" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="16">
         <v>2</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F11" s="16">
         <v>0</v>
@@ -1774,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
@@ -1782,12 +1781,12 @@
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="16">
@@ -1801,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I12" s="16">
         <v>0</v>
@@ -1813,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
@@ -1821,12 +1820,12 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
     </row>
-    <row r="13" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="16">
@@ -1840,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I13" s="16">
         <v>0</v>
@@ -1852,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="30" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
@@ -1860,19 +1859,19 @@
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
     </row>
-    <row r="14" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="16">
         <v>1</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F14" s="16">
         <v>2</v>
@@ -1881,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I14" s="16">
         <v>0</v>
@@ -1893,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
@@ -1901,21 +1900,21 @@
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="16">
         <v>2</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F15" s="16">
         <v>0</v>
@@ -1924,7 +1923,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I15" s="16">
         <v>2</v>
@@ -1937,28 +1936,28 @@
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="16" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="16">
         <v>2</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F16" s="16">
         <v>0</v>
@@ -1967,7 +1966,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I16" s="16">
         <v>1</v>
@@ -1980,28 +1979,28 @@
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="30" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="N16" s="30"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
     </row>
-    <row r="17" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D17" s="16">
         <v>1</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F17" s="16">
         <v>0</v>
@@ -2010,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I17" s="16">
         <v>0</v>
@@ -2023,28 +2022,28 @@
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="30" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="N17" s="30"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
     </row>
-    <row r="18" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D18" s="16">
         <v>2</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F18" s="16">
         <v>0</v>
@@ -2064,22 +2063,22 @@
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="30" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="N18" s="30"/>
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
     </row>
-    <row r="19" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D19" s="16">
         <v>0</v>
@@ -2092,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I19" s="16">
         <v>1</v>
@@ -2105,28 +2104,28 @@
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="30" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="N19" s="30"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
     </row>
-    <row r="20" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D20" s="16">
         <v>2</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F20" s="16">
         <v>0</v>
@@ -2146,22 +2145,22 @@
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="30" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="N20" s="30"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" s="16">
         <v>0</v>
@@ -2174,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I21" s="16">
         <v>1</v>
@@ -2187,28 +2186,28 @@
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="30" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="N21" s="30"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D22" s="16">
         <v>2</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F22" s="16">
         <v>0</v>
@@ -2228,22 +2227,22 @@
       </c>
       <c r="L22" s="16"/>
       <c r="M22" s="30" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="N22" s="30"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="17"/>
     </row>
-    <row r="23" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" s="16">
         <v>0</v>
@@ -2256,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I23" s="16">
         <v>1</v>
@@ -2269,28 +2268,28 @@
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="30" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="N23" s="30"/>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
       <c r="Q23" s="17"/>
     </row>
-    <row r="24" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D24" s="16">
         <v>2</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F24" s="16">
         <v>0</v>
@@ -2311,21 +2310,21 @@
       <c r="L24" s="16"/>
       <c r="M24" s="30"/>
       <c r="N24" s="30" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
       <c r="Q24" s="17"/>
     </row>
-    <row r="25" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25" s="16">
         <v>0</v>
@@ -2338,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I25" s="16">
         <v>1</v>
@@ -2352,21 +2351,21 @@
       <c r="L25" s="16"/>
       <c r="M25" s="30"/>
       <c r="N25" s="30" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
     </row>
-    <row r="26" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26" s="16">
         <v>1</v>
@@ -2379,7 +2378,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I26" s="16">
         <v>1</v>
@@ -2393,21 +2392,21 @@
       <c r="L26" s="16"/>
       <c r="M26" s="30"/>
       <c r="N26" s="30" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="17"/>
     </row>
-    <row r="27" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C27" s="54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D27" s="16">
         <v>2</v>
@@ -2420,7 +2419,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I27" s="16">
         <v>1</v>
@@ -2434,27 +2433,27 @@
       <c r="L27" s="16"/>
       <c r="M27" s="30"/>
       <c r="N27" s="30" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="17"/>
     </row>
-    <row r="28" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D28" s="16">
         <v>2</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F28" s="16">
         <v>0</v>
@@ -2475,21 +2474,21 @@
       <c r="L28" s="16"/>
       <c r="M28" s="30"/>
       <c r="N28" s="30" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="17"/>
     </row>
-    <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D29" s="16">
         <v>0</v>
@@ -2502,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I29" s="16">
         <v>1</v>
@@ -2516,21 +2515,21 @@
       <c r="L29" s="16"/>
       <c r="M29" s="30"/>
       <c r="N29" s="30" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="17"/>
     </row>
-    <row r="30" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D30" s="16">
         <v>0</v>
@@ -2543,7 +2542,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I30" s="16">
         <v>1</v>
@@ -2557,27 +2556,27 @@
       <c r="L30" s="16"/>
       <c r="M30" s="30"/>
       <c r="N30" s="30" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="O30" s="16"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="17"/>
     </row>
-    <row r="31" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D31" s="16">
         <v>1</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F31" s="16">
         <v>0</v>
@@ -2586,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I31" s="16">
         <v>1</v>
@@ -2601,26 +2600,26 @@
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="P31" s="16"/>
       <c r="Q31" s="17"/>
     </row>
-    <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D32" s="16">
         <v>2</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F32" s="16">
         <v>0</v>
@@ -2642,20 +2641,20 @@
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="P32" s="16"/>
       <c r="Q32" s="17"/>
     </row>
-    <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D33" s="16">
         <v>0</v>
@@ -2668,7 +2667,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I33" s="16">
         <v>0</v>
@@ -2683,26 +2682,26 @@
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
       <c r="O33" s="16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="P33" s="16"/>
       <c r="Q33" s="17"/>
     </row>
-    <row r="34" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C34" s="54" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D34" s="16">
         <v>2</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F34" s="16">
         <v>0</v>
@@ -2724,20 +2723,20 @@
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
       <c r="O34" s="16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="P34" s="16"/>
       <c r="Q34" s="17"/>
     </row>
-    <row r="35" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D35" s="16">
         <v>0</v>
@@ -2750,7 +2749,7 @@
         <v>2</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I35" s="16">
         <v>1</v>
@@ -2765,20 +2764,20 @@
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
       <c r="O35" s="16" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="P35" s="16"/>
       <c r="Q35" s="17"/>
     </row>
-    <row r="36" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C36" s="54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D36" s="16">
         <v>2</v>
@@ -2791,7 +2790,7 @@
         <v>2</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I36" s="16">
         <v>1</v>
@@ -2806,26 +2805,26 @@
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
       <c r="O36" s="16" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="P36" s="16"/>
       <c r="Q36" s="17"/>
     </row>
-    <row r="37" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="16">
+        <v>2</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="D37" s="16">
-        <v>2</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>117</v>
       </c>
       <c r="F37" s="16">
         <v>0</v>
@@ -2847,20 +2846,20 @@
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
       <c r="O37" s="16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="P37" s="16"/>
       <c r="Q37" s="17"/>
     </row>
-    <row r="38" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D38" s="16">
         <v>0</v>
@@ -2873,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I38" s="16">
         <v>1</v>
@@ -2888,26 +2887,26 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P38" s="16"/>
       <c r="Q38" s="17"/>
     </row>
-    <row r="39" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C39" s="54" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D39" s="16">
         <v>2</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F39" s="16">
         <v>0</v>
@@ -2929,20 +2928,20 @@
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="P39" s="16"/>
       <c r="Q39" s="17"/>
     </row>
-    <row r="40" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C40" s="54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D40" s="16">
         <v>0</v>
@@ -2955,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I40" s="16">
         <v>1</v>
@@ -2970,20 +2969,20 @@
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
       <c r="O40" s="16" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P40" s="16"/>
       <c r="Q40" s="17"/>
     </row>
-    <row r="41" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D41" s="16">
         <v>1</v>
@@ -2996,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I41" s="16">
         <v>1</v>
@@ -3012,25 +3011,25 @@
       <c r="N41" s="16"/>
       <c r="O41" s="16"/>
       <c r="P41" s="16" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="Q41" s="17"/>
     </row>
-    <row r="42" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C42" s="54" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D42" s="16">
         <v>2</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F42" s="16">
         <v>0</v>
@@ -3053,19 +3052,19 @@
       <c r="N42" s="16"/>
       <c r="O42" s="16"/>
       <c r="P42" s="16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="Q42" s="17"/>
     </row>
-    <row r="43" spans="1:17" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C43" s="54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
@@ -3076,7 +3075,7 @@
         <v>2</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I43" s="16">
         <v>1</v>
@@ -3092,25 +3091,25 @@
       <c r="N43" s="16"/>
       <c r="O43" s="16"/>
       <c r="P43" s="16" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="Q43" s="17"/>
     </row>
-    <row r="44" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C44" s="54" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D44" s="16">
         <v>2</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F44" s="16">
         <v>0</v>
@@ -3133,25 +3132,25 @@
       <c r="N44" s="16"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="Q44" s="17"/>
     </row>
-    <row r="45" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C45" s="54" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D45" s="16">
         <v>2</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F45" s="16">
         <v>0</v>
@@ -3174,19 +3173,19 @@
       <c r="N45" s="16"/>
       <c r="O45" s="16"/>
       <c r="P45" s="16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="Q45" s="17"/>
     </row>
-    <row r="46" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C46" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D46" s="16">
         <v>0</v>
@@ -3199,7 +3198,7 @@
         <v>2</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I46" s="16">
         <v>1</v>
@@ -3215,25 +3214,25 @@
       <c r="N46" s="16"/>
       <c r="O46" s="16"/>
       <c r="P46" s="16" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="Q46" s="17"/>
     </row>
-    <row r="47" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C47" s="54" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D47" s="16">
         <v>2</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F47" s="16">
         <v>0</v>
@@ -3256,19 +3255,19 @@
       <c r="N47" s="16"/>
       <c r="O47" s="16"/>
       <c r="P47" s="16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="Q47" s="17"/>
     </row>
-    <row r="48" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C48" s="54" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D48" s="16">
         <v>0</v>
@@ -3281,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I48" s="16">
         <v>1</v>
@@ -3297,19 +3296,19 @@
       <c r="N48" s="16"/>
       <c r="O48" s="16"/>
       <c r="P48" s="16" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="Q48" s="17"/>
     </row>
-    <row r="49" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C49" s="54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D49" s="16">
         <v>0</v>
@@ -3322,7 +3321,7 @@
         <v>2</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I49" s="16">
         <v>1</v>
@@ -3338,14 +3337,14 @@
       <c r="N49" s="16"/>
       <c r="O49" s="16"/>
       <c r="P49" s="16" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="Q49" s="17"/>
     </row>
-    <row r="50" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="34"/>
       <c r="B50" s="43" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C50" s="55"/>
       <c r="D50" s="44"/>
@@ -3375,10 +3374,10 @@
       </c>
       <c r="Q50" s="45"/>
     </row>
-    <row r="51" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="31"/>
       <c r="B51" s="32" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C51" s="53"/>
       <c r="D51" s="41"/>
@@ -3396,21 +3395,21 @@
       <c r="P51" s="41"/>
       <c r="Q51" s="33"/>
     </row>
-    <row r="52" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D52" s="16">
         <v>1</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F52" s="16">
         <v>0</v>
@@ -3419,7 +3418,7 @@
         <v>2</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I52" s="16">
         <v>0</v>
@@ -3428,36 +3427,36 @@
         <v>3</v>
       </c>
       <c r="K52" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L52" s="16"/>
       <c r="M52" s="16"/>
       <c r="N52" s="16" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="O52" s="16" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="P52" s="16" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="Q52" s="17"/>
     </row>
-    <row r="53" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C53" s="56" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D53" s="16">
         <v>2</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F53" s="16">
         <v>0</v>
@@ -3479,22 +3478,22 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
       <c r="O53" s="16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="P53" s="16"/>
       <c r="Q53" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D54" s="16">
         <v>0</v>
@@ -3507,7 +3506,7 @@
         <v>2</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I54" s="16">
         <v>1</v>
@@ -3522,28 +3521,28 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
       <c r="O54" s="16" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="P54" s="16"/>
       <c r="Q54" s="17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D55" s="16">
         <v>2</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F55" s="16">
         <v>0</v>
@@ -3559,32 +3558,32 @@
         <v>3</v>
       </c>
       <c r="K55" s="19" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L55" s="16"/>
       <c r="M55" s="16"/>
       <c r="N55" s="16" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="O55" s="16"/>
       <c r="P55" s="16"/>
       <c r="Q55" s="17"/>
     </row>
-    <row r="56" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C56" s="56" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D56" s="16">
         <v>2</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F56" s="16">
         <v>0</v>
@@ -3605,23 +3604,23 @@
       <c r="L56" s="16"/>
       <c r="M56" s="16"/>
       <c r="N56" s="16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="O56" s="16"/>
       <c r="P56" s="16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="Q56" s="17"/>
     </row>
-    <row r="57" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D57" s="16">
         <v>0</v>
@@ -3634,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I57" s="16">
         <v>1</v>
@@ -3648,23 +3647,23 @@
       <c r="L57" s="16"/>
       <c r="M57" s="16"/>
       <c r="N57" s="16" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="O57" s="16"/>
       <c r="P57" s="16" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="Q57" s="17"/>
     </row>
-    <row r="58" spans="1:20" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C58" s="54" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D58" s="16">
         <v>0</v>
@@ -3677,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I58" s="16">
         <v>1</v>
@@ -3693,25 +3692,25 @@
       <c r="N58" s="16"/>
       <c r="O58" s="16"/>
       <c r="P58" s="16" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="Q58" s="51"/>
     </row>
-    <row r="59" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C59" s="56" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D59" s="16">
         <v>2</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F59" s="16">
         <v>0</v>
@@ -3734,19 +3733,19 @@
       <c r="N59" s="16"/>
       <c r="O59" s="16"/>
       <c r="P59" s="16" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="Q59" s="17"/>
     </row>
-    <row r="60" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C60" s="54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D60" s="16">
         <v>0</v>
@@ -3759,7 +3758,7 @@
         <v>2</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I60" s="16">
         <v>0</v>
@@ -3775,25 +3774,25 @@
       <c r="N60" s="16"/>
       <c r="O60" s="16"/>
       <c r="P60" s="16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="Q60" s="17"/>
     </row>
-    <row r="61" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C61" s="54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D61" s="16">
         <v>2</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F61" s="16">
         <v>0</v>
@@ -3802,7 +3801,7 @@
         <v>2</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I61" s="16">
         <v>1</v>
@@ -3818,25 +3817,25 @@
       <c r="N61" s="16"/>
       <c r="O61" s="16"/>
       <c r="P61" s="16" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="Q61" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="73" t="s">
-        <v>157</v>
-      </c>
-      <c r="B62" s="66" t="s">
-        <v>158</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" s="61" t="s">
+        <v>149</v>
       </c>
       <c r="C62" s="22"/>
       <c r="D62" s="16">
         <v>2</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F62" s="16">
         <v>0</v>
@@ -3852,101 +3851,101 @@
         <v>5</v>
       </c>
       <c r="K62" s="16" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="L62" s="16"/>
-      <c r="M62" s="67"/>
+      <c r="M62" s="62"/>
       <c r="N62" s="16" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="O62" s="16" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="P62" s="16" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="Q62" s="17" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="T62" s="52"/>
     </row>
-    <row r="63" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="B63" s="75" t="s">
-        <v>162</v>
+    <row r="63" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="70" t="s">
+        <v>153</v>
       </c>
       <c r="C63" s="28"/>
-      <c r="D63" s="76">
-        <v>2</v>
-      </c>
-      <c r="E63" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="F63" s="76">
-        <v>0</v>
-      </c>
-      <c r="G63" s="76">
-        <v>0</v>
-      </c>
-      <c r="H63" s="78"/>
-      <c r="I63" s="78">
-        <v>0</v>
-      </c>
-      <c r="J63" s="76">
-        <v>2</v>
-      </c>
-      <c r="K63" s="77">
+      <c r="D63" s="71">
+        <v>2</v>
+      </c>
+      <c r="E63" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F63" s="71">
+        <v>0</v>
+      </c>
+      <c r="G63" s="71">
+        <v>0</v>
+      </c>
+      <c r="H63" s="73"/>
+      <c r="I63" s="73">
+        <v>0</v>
+      </c>
+      <c r="J63" s="71">
+        <v>2</v>
+      </c>
+      <c r="K63" s="72">
         <v>3.5</v>
       </c>
-      <c r="L63" s="77"/>
-      <c r="M63" s="79"/>
-      <c r="N63" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="O63" s="77"/>
-      <c r="P63" s="77" t="s">
-        <v>136</v>
+      <c r="L63" s="72"/>
+      <c r="M63" s="74"/>
+      <c r="N63" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="O63" s="72"/>
+      <c r="P63" s="72" t="s">
+        <v>127</v>
       </c>
       <c r="Q63" s="45"/>
       <c r="T63" s="52"/>
     </row>
-    <row r="64" spans="1:20" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="68"/>
-      <c r="B64" s="69" t="s">
-        <v>110</v>
-      </c>
-      <c r="C64" s="70"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="71"/>
-      <c r="J64" s="71">
+    <row r="64" spans="1:20" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="63"/>
+      <c r="B64" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="65"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66">
         <v>23</v>
       </c>
-      <c r="K64" s="71"/>
-      <c r="L64" s="71"/>
-      <c r="M64" s="71"/>
-      <c r="N64" s="71">
+      <c r="K64" s="66"/>
+      <c r="L64" s="66"/>
+      <c r="M64" s="66"/>
+      <c r="N64" s="66">
         <v>9</v>
       </c>
-      <c r="O64" s="71">
-        <v>0</v>
-      </c>
-      <c r="P64" s="71">
+      <c r="O64" s="66">
+        <v>0</v>
+      </c>
+      <c r="P64" s="66">
         <v>6</v>
       </c>
-      <c r="Q64" s="72">
+      <c r="Q64" s="67">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="46"/>
       <c r="B65" s="47" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C65" s="58"/>
       <c r="D65" s="48"/>
@@ -3978,10 +3977,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11"/>
       <c r="B66" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="21"/>
@@ -4005,12 +4004,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="21"/>
@@ -4032,10 +4031,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
       <c r="B68" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C68" s="60"/>
       <c r="D68" s="24"/>
@@ -4065,10 +4064,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
       <c r="B69" s="13" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C69" s="57"/>
       <c r="D69" s="26"/>
@@ -4088,47 +4087,47 @@
       <c r="P69" s="28"/>
       <c r="Q69" s="29"/>
     </row>
-    <row r="72" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="65"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="65"/>
-      <c r="H72" s="65"/>
-      <c r="I72" s="65"/>
-      <c r="J72" s="65"/>
-      <c r="K72" s="65"/>
-      <c r="L72" s="65"/>
-      <c r="M72" s="65"/>
-      <c r="N72" s="65"/>
-      <c r="O72" s="65"/>
-      <c r="P72" s="65"/>
-      <c r="Q72" s="65"/>
-    </row>
-    <row r="74" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="65"/>
-      <c r="I74" s="65"/>
-      <c r="J74" s="65"/>
-      <c r="K74" s="65"/>
-      <c r="L74" s="65"/>
-      <c r="M74" s="65"/>
-      <c r="N74" s="65"/>
-      <c r="O74" s="65"/>
-      <c r="P74" s="65"/>
-      <c r="Q74" s="65"/>
+    <row r="72" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="79"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="79"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="79"/>
+      <c r="H72" s="79"/>
+      <c r="I72" s="79"/>
+      <c r="J72" s="79"/>
+      <c r="K72" s="79"/>
+      <c r="L72" s="79"/>
+      <c r="M72" s="79"/>
+      <c r="N72" s="79"/>
+      <c r="O72" s="79"/>
+      <c r="P72" s="79"/>
+      <c r="Q72" s="79"/>
+    </row>
+    <row r="74" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="79" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" s="79"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="79"/>
+      <c r="I74" s="79"/>
+      <c r="J74" s="79"/>
+      <c r="K74" s="79"/>
+      <c r="L74" s="79"/>
+      <c r="M74" s="79"/>
+      <c r="N74" s="79"/>
+      <c r="O74" s="79"/>
+      <c r="P74" s="79"/>
+      <c r="Q74" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4191,6 +4190,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x010100CA947E63DBB18C43B0DCD636FEFAAF82" ma:contentTypeVersion="0" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="105f5595a234019decd898e650ffc1cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7af5af6639fca6992108c272a16dc73">
     <xsd:element name="properties">
@@ -4304,29 +4318,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF89BEA5-8A6A-4D48-90CC-52A611D335CD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E11E5BB-D532-4492-9D3A-3684DEAD3184}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C094DEF4-EC90-43B8-9BD8-CA2179F2E790}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C094DEF4-EC90-43B8-9BD8-CA2179F2E790}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E11E5BB-D532-4492-9D3A-3684DEAD3184}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF89BEA5-8A6A-4D48-90CC-52A611D335CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/backend/django_subject_manager/input/angol.xlsx
+++ b/backend/django_subject_manager/input/angol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathearnoldattila/Arnold/egyetem/6felev/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathearnoldattila/Arnold/egyetem/6felev/subject_manager/backend/django_subject_manager/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20E47E5-6BB0-844F-81D3-A92DFCFE4F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B2D9CE-5E43-B245-A113-B7B89EE57B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28020" yWindow="-5900" windowWidth="24240" windowHeight="13300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="163">
   <si>
     <t>Computer systems</t>
   </si>
@@ -1497,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:T74"/>
+  <dimension ref="A3:T75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3395,124 +3395,134 @@
       <c r="P51" s="41"/>
       <c r="Q51" s="33"/>
     </row>
-    <row r="52" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
+    <row r="52" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="A52" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="F52" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="G52" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="H52" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="I52" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="J52" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="K52" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="L52" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="M52" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="N52" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="O52" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="P52" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q52" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B53" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C53" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D52" s="16">
-        <v>1</v>
-      </c>
-      <c r="E52" s="16" t="s">
+      <c r="D53" s="16">
+        <v>1</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F52" s="16">
-        <v>0</v>
-      </c>
-      <c r="G52" s="16">
-        <v>2</v>
-      </c>
-      <c r="H52" s="16" t="s">
+      <c r="F53" s="16">
+        <v>0</v>
+      </c>
+      <c r="G53" s="16">
+        <v>2</v>
+      </c>
+      <c r="H53" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="I52" s="16">
-        <v>0</v>
-      </c>
-      <c r="J52" s="16">
+      <c r="I53" s="16">
+        <v>0</v>
+      </c>
+      <c r="J53" s="16">
         <v>3</v>
       </c>
-      <c r="K52" s="16" t="s">
+      <c r="K53" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="O52" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="P52" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q52" s="17"/>
-    </row>
-    <row r="53" spans="1:20" ht="32" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="D53" s="16">
-        <v>2</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F53" s="16">
-        <v>0</v>
-      </c>
-      <c r="G53" s="16">
-        <v>0</v>
-      </c>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16">
-        <v>0</v>
-      </c>
-      <c r="J53" s="16">
-        <v>2</v>
-      </c>
-      <c r="K53" s="16">
-        <v>4.5</v>
       </c>
       <c r="L53" s="16"/>
       <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
+      <c r="N53" s="16" t="s">
+        <v>126</v>
+      </c>
       <c r="O53" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="P53" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q53" s="17"/>
+    </row>
+    <row r="54" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="16" t="s">
-        <v>45</v>
+      <c r="C54" s="56" t="s">
+        <v>115</v>
       </c>
       <c r="D54" s="16">
-        <v>0</v>
-      </c>
-      <c r="E54" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="F54" s="16">
         <v>0</v>
       </c>
       <c r="G54" s="16">
-        <v>2</v>
-      </c>
-      <c r="H54" s="16" t="s">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" s="16"/>
       <c r="I54" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K54" s="16">
         <v>4.5</v>
@@ -3521,63 +3531,65 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
       <c r="O54" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P54" s="16"/>
       <c r="Q54" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D55" s="16">
-        <v>2</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>108</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E55" s="16"/>
       <c r="F55" s="16">
         <v>0</v>
       </c>
       <c r="G55" s="16">
-        <v>0</v>
-      </c>
-      <c r="H55" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="I55" s="16">
         <v>1</v>
       </c>
       <c r="J55" s="16">
         <v>3</v>
       </c>
-      <c r="K55" s="19" t="s">
-        <v>117</v>
+      <c r="K55" s="16">
+        <v>4.5</v>
       </c>
       <c r="L55" s="16"/>
       <c r="M55" s="16"/>
-      <c r="N55" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="O55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16" t="s">
+        <v>130</v>
+      </c>
       <c r="P55" s="16"/>
-      <c r="Q55" s="17"/>
-    </row>
-    <row r="56" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C56" s="56" t="s">
-        <v>114</v>
+        <v>29</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="D56" s="16">
         <v>2</v>
@@ -3593,53 +3605,51 @@
       </c>
       <c r="H56" s="16"/>
       <c r="I56" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="16">
-        <v>2</v>
-      </c>
-      <c r="K56" s="16">
-        <v>3.5</v>
+        <v>3</v>
+      </c>
+      <c r="K56" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="L56" s="16"/>
       <c r="M56" s="16"/>
       <c r="N56" s="16" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="O56" s="16"/>
-      <c r="P56" s="16" t="s">
-        <v>127</v>
-      </c>
+      <c r="P56" s="16"/>
       <c r="Q56" s="17"/>
     </row>
-    <row r="57" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="16" t="s">
-        <v>40</v>
+      <c r="C57" s="56" t="s">
+        <v>114</v>
       </c>
       <c r="D57" s="16">
-        <v>0</v>
-      </c>
-      <c r="E57" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="F57" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G57" s="16">
         <v>0</v>
       </c>
-      <c r="H57" s="16" t="s">
-        <v>107</v>
-      </c>
+      <c r="H57" s="16"/>
       <c r="I57" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K57" s="16">
         <v>3.5</v>
@@ -3647,23 +3657,23 @@
       <c r="L57" s="16"/>
       <c r="M57" s="16"/>
       <c r="N57" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O57" s="16"/>
       <c r="P57" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q57" s="17"/>
     </row>
-    <row r="58" spans="1:20" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" s="54" t="s">
-        <v>131</v>
+        <v>73</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="D58" s="16">
         <v>0</v>
@@ -3676,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="I58" s="16">
         <v>1</v>
@@ -3685,40 +3695,42 @@
         <v>3</v>
       </c>
       <c r="K58" s="16">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L58" s="16"/>
       <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
+      <c r="N58" s="16" t="s">
+        <v>128</v>
+      </c>
       <c r="O58" s="16"/>
       <c r="P58" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="Q58" s="51"/>
-    </row>
-    <row r="59" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="17"/>
+    </row>
+    <row r="59" spans="1:20" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="56" t="s">
-        <v>114</v>
+        <v>144</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="54" t="s">
+        <v>131</v>
       </c>
       <c r="D59" s="16">
-        <v>2</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>108</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E59" s="16"/>
       <c r="F59" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G59" s="16">
         <v>0</v>
       </c>
-      <c r="H59" s="16"/>
+      <c r="H59" s="16" t="s">
+        <v>146</v>
+      </c>
       <c r="I59" s="16">
         <v>1</v>
       </c>
@@ -3733,38 +3745,38 @@
       <c r="N59" s="16"/>
       <c r="O59" s="16"/>
       <c r="P59" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q59" s="17"/>
-    </row>
-    <row r="60" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="Q59" s="51"/>
+    </row>
+    <row r="60" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="54" t="s">
-        <v>41</v>
+      <c r="C60" s="56" t="s">
+        <v>114</v>
       </c>
       <c r="D60" s="16">
-        <v>0</v>
-      </c>
-      <c r="E60" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="F60" s="16">
         <v>0</v>
       </c>
       <c r="G60" s="16">
-        <v>2</v>
-      </c>
-      <c r="H60" s="16" t="s">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" s="16"/>
       <c r="I60" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K60" s="16">
         <v>5</v>
@@ -3774,26 +3786,24 @@
       <c r="N60" s="16"/>
       <c r="O60" s="16"/>
       <c r="P60" s="16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q60" s="17"/>
     </row>
-    <row r="61" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C61" s="54" t="s">
         <v>41</v>
       </c>
       <c r="D61" s="16">
-        <v>2</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>106</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E61" s="16"/>
       <c r="F61" s="16">
         <v>0</v>
       </c>
@@ -3804,38 +3814,38 @@
         <v>107</v>
       </c>
       <c r="I61" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" s="16">
+        <v>2</v>
+      </c>
+      <c r="K61" s="16">
         <v>5</v>
-      </c>
-      <c r="K61" s="16">
-        <v>5.6</v>
       </c>
       <c r="L61" s="16"/>
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
       <c r="O61" s="16"/>
       <c r="P61" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q61" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="B62" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="C62" s="22"/>
+        <v>134</v>
+      </c>
+      <c r="Q61" s="17"/>
+    </row>
+    <row r="62" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="54" t="s">
+        <v>41</v>
+      </c>
       <c r="D62" s="16">
         <v>2</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F62" s="16">
         <v>0</v>
@@ -3843,173 +3853,187 @@
       <c r="G62" s="16">
         <v>2</v>
       </c>
-      <c r="H62" s="16"/>
+      <c r="H62" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="I62" s="16">
         <v>1</v>
       </c>
       <c r="J62" s="16">
         <v>5</v>
       </c>
-      <c r="K62" s="16" t="s">
-        <v>150</v>
+      <c r="K62" s="16">
+        <v>5.6</v>
       </c>
       <c r="L62" s="16"/>
-      <c r="M62" s="62"/>
-      <c r="N62" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="O62" s="16" t="s">
-        <v>119</v>
-      </c>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
       <c r="P62" s="16" t="s">
         <v>119</v>
       </c>
       <c r="Q62" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="T62" s="52"/>
-    </row>
-    <row r="63" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="69" t="s">
+    </row>
+    <row r="63" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="22"/>
+      <c r="D63" s="16">
+        <v>2</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F63" s="16">
+        <v>0</v>
+      </c>
+      <c r="G63" s="16">
+        <v>2</v>
+      </c>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16">
+        <v>1</v>
+      </c>
+      <c r="J63" s="16">
+        <v>5</v>
+      </c>
+      <c r="K63" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L63" s="16"/>
+      <c r="M63" s="62"/>
+      <c r="N63" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="O63" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="P63" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q63" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="T63" s="52"/>
+    </row>
+    <row r="64" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="B63" s="70" t="s">
+      <c r="B64" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="C63" s="28"/>
-      <c r="D63" s="71">
-        <v>2</v>
-      </c>
-      <c r="E63" s="72" t="s">
+      <c r="C64" s="28"/>
+      <c r="D64" s="71">
+        <v>2</v>
+      </c>
+      <c r="E64" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="F63" s="71">
-        <v>0</v>
-      </c>
-      <c r="G63" s="71">
-        <v>0</v>
-      </c>
-      <c r="H63" s="73"/>
-      <c r="I63" s="73">
-        <v>0</v>
-      </c>
-      <c r="J63" s="71">
-        <v>2</v>
-      </c>
-      <c r="K63" s="72">
+      <c r="F64" s="71">
+        <v>0</v>
+      </c>
+      <c r="G64" s="71">
+        <v>0</v>
+      </c>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73">
+        <v>0</v>
+      </c>
+      <c r="J64" s="71">
+        <v>2</v>
+      </c>
+      <c r="K64" s="72">
         <v>3.5</v>
       </c>
-      <c r="L63" s="72"/>
-      <c r="M63" s="74"/>
-      <c r="N63" s="72" t="s">
+      <c r="L64" s="72"/>
+      <c r="M64" s="74"/>
+      <c r="N64" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="O63" s="72"/>
-      <c r="P63" s="72" t="s">
+      <c r="O64" s="72"/>
+      <c r="P64" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="Q63" s="45"/>
-      <c r="T63" s="52"/>
-    </row>
-    <row r="64" spans="1:20" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="63"/>
-      <c r="B64" s="64" t="s">
+      <c r="Q64" s="45"/>
+      <c r="T64" s="52"/>
+    </row>
+    <row r="65" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="63"/>
+      <c r="B65" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="C64" s="65"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66"/>
-      <c r="I64" s="66"/>
-      <c r="J64" s="66">
+      <c r="C65" s="65"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="66">
         <v>23</v>
       </c>
-      <c r="K64" s="66"/>
-      <c r="L64" s="66"/>
-      <c r="M64" s="66"/>
-      <c r="N64" s="66">
+      <c r="K65" s="66"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="66"/>
+      <c r="N65" s="66">
         <v>9</v>
       </c>
-      <c r="O64" s="66">
-        <v>0</v>
-      </c>
-      <c r="P64" s="66">
+      <c r="O65" s="66">
+        <v>0</v>
+      </c>
+      <c r="P65" s="66">
         <v>6</v>
       </c>
-      <c r="Q64" s="67">
+      <c r="Q65" s="67">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="46"/>
-      <c r="B65" s="47" t="s">
+    <row r="66" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="46"/>
+      <c r="B66" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="C65" s="58"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="49">
+      <c r="C66" s="58"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="49">
         <v>150</v>
       </c>
-      <c r="K65" s="48"/>
-      <c r="L65" s="48">
+      <c r="K66" s="48"/>
+      <c r="L66" s="48">
         <v>29</v>
       </c>
-      <c r="M65" s="48">
+      <c r="M66" s="48">
         <v>30</v>
       </c>
-      <c r="N65" s="48">
+      <c r="N66" s="48">
         <v>31</v>
       </c>
-      <c r="O65" s="48">
+      <c r="O66" s="48">
         <v>22</v>
       </c>
-      <c r="P65" s="48">
+      <c r="P66" s="48">
         <v>30</v>
       </c>
-      <c r="Q65" s="50">
+      <c r="Q66" s="50">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="11"/>
-      <c r="B66" s="2" t="s">
+    <row r="67" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="11"/>
+      <c r="B67" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C66" s="59"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="20">
-        <v>10</v>
-      </c>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="21">
-        <v>8</v>
-      </c>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="21"/>
@@ -4019,121 +4043,150 @@
       <c r="H67" s="21"/>
       <c r="I67" s="22"/>
       <c r="J67" s="20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K67" s="21"/>
       <c r="L67" s="21"/>
       <c r="M67" s="21"/>
       <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
+      <c r="O67" s="21">
+        <v>8</v>
+      </c>
       <c r="P67" s="21"/>
       <c r="Q67" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="59"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="20">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="11"/>
-      <c r="B68" s="3" t="s">
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="11"/>
+      <c r="B69" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="60"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="24">
+      <c r="C69" s="60"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="24">
         <v>29</v>
       </c>
-      <c r="M68" s="24">
+      <c r="M69" s="24">
         <v>30</v>
       </c>
-      <c r="N68" s="24">
+      <c r="N69" s="24">
         <v>31</v>
       </c>
-      <c r="O68" s="24">
+      <c r="O69" s="24">
         <v>30</v>
       </c>
-      <c r="P68" s="24">
+      <c r="P69" s="24">
         <v>30</v>
       </c>
-      <c r="Q68" s="25">
+      <c r="Q69" s="25">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="13" t="s">
+    <row r="70" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="12"/>
+      <c r="B70" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="57"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26">
+      <c r="C70" s="57"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26">
         <v>180</v>
       </c>
-      <c r="K69" s="27"/>
-      <c r="L69" s="27"/>
-      <c r="M69" s="27"/>
-      <c r="N69" s="27"/>
-      <c r="O69" s="27"/>
-      <c r="P69" s="28"/>
-      <c r="Q69" s="29"/>
-    </row>
-    <row r="72" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="79" t="s">
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="27"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="28"/>
+      <c r="Q70" s="29"/>
+    </row>
+    <row r="73" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="B72" s="79"/>
-      <c r="C72" s="79"/>
-      <c r="D72" s="79"/>
-      <c r="E72" s="79"/>
-      <c r="F72" s="79"/>
-      <c r="G72" s="79"/>
-      <c r="H72" s="79"/>
-      <c r="I72" s="79"/>
-      <c r="J72" s="79"/>
-      <c r="K72" s="79"/>
-      <c r="L72" s="79"/>
-      <c r="M72" s="79"/>
-      <c r="N72" s="79"/>
-      <c r="O72" s="79"/>
-      <c r="P72" s="79"/>
-      <c r="Q72" s="79"/>
-    </row>
-    <row r="74" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="79" t="s">
+      <c r="B73" s="79"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="79"/>
+      <c r="G73" s="79"/>
+      <c r="H73" s="79"/>
+      <c r="I73" s="79"/>
+      <c r="J73" s="79"/>
+      <c r="K73" s="79"/>
+      <c r="L73" s="79"/>
+      <c r="M73" s="79"/>
+      <c r="N73" s="79"/>
+      <c r="O73" s="79"/>
+      <c r="P73" s="79"/>
+      <c r="Q73" s="79"/>
+    </row>
+    <row r="75" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="B74" s="79"/>
-      <c r="C74" s="79"/>
-      <c r="D74" s="79"/>
-      <c r="E74" s="79"/>
-      <c r="F74" s="79"/>
-      <c r="G74" s="79"/>
-      <c r="H74" s="79"/>
-      <c r="I74" s="79"/>
-      <c r="J74" s="79"/>
-      <c r="K74" s="79"/>
-      <c r="L74" s="79"/>
-      <c r="M74" s="79"/>
-      <c r="N74" s="79"/>
-      <c r="O74" s="79"/>
-      <c r="P74" s="79"/>
-      <c r="Q74" s="79"/>
+      <c r="B75" s="79"/>
+      <c r="C75" s="79"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="79"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="79"/>
+      <c r="H75" s="79"/>
+      <c r="I75" s="79"/>
+      <c r="J75" s="79"/>
+      <c r="K75" s="79"/>
+      <c r="L75" s="79"/>
+      <c r="M75" s="79"/>
+      <c r="N75" s="79"/>
+      <c r="O75" s="79"/>
+      <c r="P75" s="79"/>
+      <c r="Q75" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A4:O5"/>
-    <mergeCell ref="A72:Q72"/>
-    <mergeCell ref="A74:Q74"/>
+    <mergeCell ref="A73:Q73"/>
+    <mergeCell ref="A75:Q75"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -4174,15 +4227,15 @@
     <hyperlink ref="B47" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="B48" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="B49" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B52" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B53" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B54" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B55" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B56" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B57" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B58" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B53" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B54" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B55" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B56" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B57" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B58" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B59" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="B36" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B62" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B63" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId48"/>
@@ -4196,15 +4249,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x010100CA947E63DBB18C43B0DCD636FEFAAF82" ma:contentTypeVersion="0" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="105f5595a234019decd898e650ffc1cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7af5af6639fca6992108c272a16dc73">
     <xsd:element name="properties">
@@ -4318,6 +4362,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E11E5BB-D532-4492-9D3A-3684DEAD3184}">
   <ds:schemaRefs>
@@ -4328,14 +4381,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C094DEF4-EC90-43B8-9BD8-CA2179F2E790}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF89BEA5-8A6A-4D48-90CC-52A611D335CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4349,4 +4394,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C094DEF4-EC90-43B8-9BD8-CA2179F2E790}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/backend/django_subject_manager/input/angol.xlsx
+++ b/backend/django_subject_manager/input/angol.xlsx
@@ -5,510 +5,526 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathearnoldattila/Arnold/egyetem/6felev/subject_manager/backend/django_subject_manager/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathearnoldattila/Arnold/egyetem/6felev/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B2D9CE-5E43-B245-A113-B7B89EE57B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FBE782-C12F-E342-99BB-671CCDABF9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="-5900" windowWidth="24240" windowHeight="13300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24240" windowHeight="13300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Angol BSc" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="163">
   <si>
+    <t>Computer Science BSc 2018 (in English, for Foreign students)</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Előfeltétel 1</t>
+  </si>
+  <si>
+    <t>Lecture (L)</t>
+  </si>
+  <si>
+    <t>Exam €</t>
+  </si>
+  <si>
+    <t>Practice (Pr</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Practice Grade (PG)</t>
+  </si>
+  <si>
+    <t>Consultation</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Semester</t>
+  </si>
+  <si>
+    <t>1st Semester</t>
+  </si>
+  <si>
+    <t>2nd Semester</t>
+  </si>
+  <si>
+    <t>3rd Semester</t>
+  </si>
+  <si>
+    <t>4th Semester</t>
+  </si>
+  <si>
+    <t>5th Semester</t>
+  </si>
+  <si>
+    <t>6th Semester</t>
+  </si>
+  <si>
+    <t>IP-18fSZGREG</t>
+  </si>
+  <si>
     <t>Computer systems</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>2+0+2+1</t>
+  </si>
+  <si>
+    <t>IP-18fPROGEG</t>
+  </si>
+  <si>
     <t>Programming</t>
   </si>
   <si>
+    <t>2+0+3+1</t>
+  </si>
+  <si>
+    <t>IP-18fIMPROGEG</t>
+  </si>
+  <si>
     <t>Imperative programming</t>
   </si>
   <si>
+    <t>2+0+3+0</t>
+  </si>
+  <si>
+    <t>IP-18fFUNPEG</t>
+  </si>
+  <si>
     <t>Functional programming</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>IP-18fMATAG</t>
+  </si>
+  <si>
     <t>Basic Mathematics</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>0+4+0+0</t>
+  </si>
+  <si>
+    <t>IP-18fTMKG</t>
+  </si>
+  <si>
     <t>Learning Methodology</t>
   </si>
   <si>
+    <t>0+1+0+0</t>
+  </si>
+  <si>
+    <t>IP-18fIVMEG</t>
+  </si>
+  <si>
     <t>Business fundamentals</t>
   </si>
   <si>
+    <t>1+2+0+0</t>
+  </si>
+  <si>
+    <t>IP-18fPNYEG</t>
+  </si>
+  <si>
+    <t>Programming languages</t>
+  </si>
+  <si>
+    <t>2+0+2+2</t>
+  </si>
+  <si>
+    <t>IP-18fOEPROGEG</t>
+  </si>
+  <si>
     <t>Object-oriented programming</t>
   </si>
   <si>
+    <t>IP-18fWF1EG</t>
+  </si>
+  <si>
     <t>Web development</t>
   </si>
   <si>
+    <t>IP-18fSZGREG (weak)</t>
+  </si>
+  <si>
+    <t>1+0+2+0</t>
+  </si>
+  <si>
+    <t>IP-18fAA1E</t>
+  </si>
+  <si>
     <t>Algorithms and data structures I</t>
   </si>
   <si>
+    <t>IP-18fAA1G (weak)</t>
+  </si>
+  <si>
+    <t>2+0+0+0</t>
+  </si>
+  <si>
+    <t>IP-18fAA1G</t>
+  </si>
+  <si>
+    <t>IP-18fMATAG,               IP-18fPROGEG</t>
+  </si>
+  <si>
+    <t>0+2+0+1</t>
+  </si>
+  <si>
+    <t>IP-18fDM1E</t>
+  </si>
+  <si>
     <t>Discrete mathematics I</t>
   </si>
   <si>
+    <t>IP-18fDM1G (weak)</t>
+  </si>
+  <si>
+    <t>IP-18fDM1G</t>
+  </si>
+  <si>
+    <t>IP-18fAN1E</t>
+  </si>
+  <si>
     <t>Analysis I</t>
   </si>
   <si>
+    <t>IP-18fAN1G (weak)</t>
+  </si>
+  <si>
+    <t>IP-18fAN1G</t>
+  </si>
+  <si>
+    <t>IP-18fAA2E</t>
+  </si>
+  <si>
     <t>Algorithms and data structures II</t>
   </si>
   <si>
+    <t>IP-18fAA2G (weak)</t>
+  </si>
+  <si>
+    <t>IP-18fAA2G</t>
+  </si>
+  <si>
+    <t>IP-18fWPEG</t>
+  </si>
+  <si>
     <t>Web programming</t>
   </si>
   <si>
+    <t>1+0+2+1</t>
+  </si>
+  <si>
+    <t>IP-18fPROGTEG</t>
+  </si>
+  <si>
     <t>Programming technology</t>
   </si>
   <si>
+    <t>IP-18fAN2E</t>
+  </si>
+  <si>
     <t>Analysis II</t>
   </si>
   <si>
+    <t>IP-18fAN2G (weak)</t>
+  </si>
+  <si>
+    <t>IP-18fAN2G</t>
+  </si>
+  <si>
+    <t>IP-18fDMAG</t>
+  </si>
+  <si>
     <t>Application of discrete models</t>
   </si>
   <si>
+    <t>0+0+2+1</t>
+  </si>
+  <si>
+    <t>IP-18fOPREG</t>
+  </si>
+  <si>
     <t>Operating systems</t>
   </si>
   <si>
+    <t>1++0+1+1</t>
+  </si>
+  <si>
+    <t>IP-18fAB1E</t>
+  </si>
+  <si>
     <t>Databases I</t>
   </si>
   <si>
+    <t>IP-18fAB1G (weak)</t>
+  </si>
+  <si>
+    <t>IP-18fAB1G</t>
+  </si>
+  <si>
+    <t>0+0+2+0</t>
+  </si>
+  <si>
+    <t>IP-18fSZTE</t>
+  </si>
+  <si>
+    <t>Software technology***</t>
+  </si>
+  <si>
+    <t>IP-18fSZTG (weak)</t>
+  </si>
+  <si>
+    <t>IP-18fSZTG</t>
+  </si>
+  <si>
+    <t>Software technology ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP-18fSZTEG </t>
+  </si>
+  <si>
+    <t>Sotfware technology</t>
+  </si>
+  <si>
+    <t>IP-18fSZEA1E</t>
+  </si>
+  <si>
     <t>Fundamentals of theory of computation I</t>
   </si>
   <si>
+    <t>IP-18fSZEA1G (weak)</t>
+  </si>
+  <si>
+    <t>IP-18fSZEA1G</t>
+  </si>
+  <si>
+    <t>IP-18fNM1E</t>
+  </si>
+  <si>
     <t>Numerical methods</t>
   </si>
   <si>
+    <t>IP-18fNM1G (weak)</t>
+  </si>
+  <si>
+    <t>IP-18fNM1G</t>
+  </si>
+  <si>
+    <t>IP-18fKPROGEG</t>
+  </si>
+  <si>
+    <t>Concurrent programming</t>
+  </si>
+  <si>
+    <t>1+0+1+1</t>
+  </si>
+  <si>
+    <t>IP-18fTKHE</t>
+  </si>
+  <si>
+    <t>Telecommunication networks</t>
+  </si>
+  <si>
+    <t>IP-18fTKHG (weak)</t>
+  </si>
+  <si>
+    <t>IP-18fTKHG</t>
+  </si>
+  <si>
+    <t>IP-18fMIAE</t>
+  </si>
+  <si>
     <t>Artificial intelligence</t>
   </si>
   <si>
-    <t>Concurrent programming</t>
-  </si>
-  <si>
-    <t>Telecommunication networks</t>
+    <t>IP-18fAA2E (weak)</t>
+  </si>
+  <si>
+    <t>2+0+0+1</t>
+  </si>
+  <si>
+    <t>IP-18fAB2E</t>
   </si>
   <si>
     <t>Databases II</t>
   </si>
   <si>
+    <t>IP-18fAB2G</t>
+  </si>
+  <si>
+    <t>IP-18fSZEA2E</t>
+  </si>
+  <si>
     <t>Fundamentals of theory of computation II</t>
   </si>
   <si>
+    <t>IP-18fSZEA2G (weak)</t>
+  </si>
+  <si>
+    <t>IP-18fSZEA2G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP-18fSZEA1E              </t>
+  </si>
+  <si>
+    <t>IP-18fVSZG</t>
+  </si>
+  <si>
     <t>Probability and statistics</t>
   </si>
   <si>
+    <t>Obligatory in semester</t>
+  </si>
+  <si>
+    <t>Electives:</t>
+  </si>
+  <si>
+    <t>IP-18fKVGPUEG</t>
+  </si>
+  <si>
+    <t>GPU programming****</t>
+  </si>
+  <si>
     <t>3,4,5</t>
   </si>
   <si>
+    <t>IP-18fKVKRBE</t>
+  </si>
+  <si>
     <t>Cryptography and security</t>
   </si>
   <si>
+    <t>IP-18fKVKRBG (weak)</t>
+  </si>
+  <si>
+    <t>IP-18fKVKRBG</t>
+  </si>
+  <si>
+    <t>IP-18fKVBGTE</t>
+  </si>
+  <si>
     <t>Introduction to machine learning</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>IP-18fKVPREE</t>
+  </si>
+  <si>
     <t>Programming theory</t>
   </si>
   <si>
+    <t>IP-18fKVFPG (weak)</t>
+  </si>
+  <si>
+    <t>IP-18fKVPREG</t>
+  </si>
+  <si>
+    <t>IP-18KVPRJG</t>
+  </si>
+  <si>
     <t>Tools of software projects</t>
   </si>
   <si>
+    <t>IP-18fKVFPE</t>
+  </si>
+  <si>
     <t>Compilers</t>
   </si>
   <si>
+    <t>IP-18fKVFPG</t>
+  </si>
+  <si>
+    <t>IP-18fKVADA</t>
+  </si>
+  <si>
     <t>ADA</t>
   </si>
   <si>
-    <t>IP-18fSZGREG</t>
-  </si>
-  <si>
-    <t>IP-18fPROGEG</t>
-  </si>
-  <si>
-    <t>IP-18fIMPROGEG</t>
-  </si>
-  <si>
-    <t>IP-18fFUNPEG</t>
-  </si>
-  <si>
-    <t>IP-18fTMKG</t>
-  </si>
-  <si>
-    <t>IP-18fIVMEG</t>
-  </si>
-  <si>
-    <t>IP-18fMATAG</t>
-  </si>
-  <si>
-    <t>IP-18fOEPROGEG</t>
-  </si>
-  <si>
-    <t>IP-18fWF1EG</t>
-  </si>
-  <si>
-    <t>IP-18fAA1E</t>
-  </si>
-  <si>
-    <t>IP-18fAA1G</t>
-  </si>
-  <si>
-    <t>IP-18fDM1E</t>
-  </si>
-  <si>
-    <t>IP-18fDM1G</t>
-  </si>
-  <si>
-    <t>IP-18fAN1E</t>
-  </si>
-  <si>
-    <t>IP-18fAN1G</t>
-  </si>
-  <si>
-    <t>IP-18fAA2E</t>
-  </si>
-  <si>
-    <t>IP-18fAA2G</t>
-  </si>
-  <si>
-    <t>IP-18fPROGTEG</t>
-  </si>
-  <si>
-    <t>IP-18fAN2E</t>
-  </si>
-  <si>
-    <t>IP-18fAN2G</t>
-  </si>
-  <si>
-    <t>IP-18fDMAG</t>
-  </si>
-  <si>
-    <t>IP-18fOPREG</t>
-  </si>
-  <si>
-    <t>IP-18fAB1E</t>
-  </si>
-  <si>
-    <t>IP-18fAB1G</t>
-  </si>
-  <si>
-    <t>IP-18fSZTE</t>
-  </si>
-  <si>
-    <t>IP-18fSZTG</t>
-  </si>
-  <si>
-    <t>IP-18fNM1E</t>
-  </si>
-  <si>
-    <t>IP-18fNM1G</t>
-  </si>
-  <si>
-    <t>IP-18fAB2E</t>
-  </si>
-  <si>
-    <t>IP-18fAB2G</t>
-  </si>
-  <si>
-    <t>IP-18fKPROGEG</t>
-  </si>
-  <si>
-    <t>IP-18fTKHE</t>
-  </si>
-  <si>
-    <t>IP-18fTKHG</t>
-  </si>
-  <si>
-    <t>IP-18fMIAE</t>
-  </si>
-  <si>
-    <t>IP-18fKVGPUEG</t>
-  </si>
-  <si>
-    <t>IP-18fVSZG</t>
-  </si>
-  <si>
-    <t>IP-18fKVKRBE</t>
-  </si>
-  <si>
-    <t>IP-18fKVKRBG</t>
-  </si>
-  <si>
-    <t>IP-18fKVPREE</t>
-  </si>
-  <si>
-    <t>IP-18fKVPREG</t>
-  </si>
-  <si>
-    <t>IP-18fKVFPE</t>
-  </si>
-  <si>
-    <t>IP-18fKVFPG</t>
-  </si>
-  <si>
-    <t>IP-18fKVADA</t>
-  </si>
-  <si>
-    <t>IP-18fWPEG</t>
+    <t>IP-18KVPYEG</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>3,4,5,6</t>
+  </si>
+  <si>
+    <t>IP-18KVIADSE</t>
+  </si>
+  <si>
+    <t>Applied Data Science</t>
+  </si>
+  <si>
+    <t>Electives in semester</t>
+  </si>
+  <si>
+    <t>Obligatorys+Electives in semester</t>
+  </si>
+  <si>
+    <t>Optional course</t>
+  </si>
+  <si>
+    <t>IP-18FSZD</t>
   </si>
   <si>
     <t>Diploma work consultations</t>
   </si>
   <si>
-    <t>IP-18FSZD</t>
-  </si>
-  <si>
-    <t>IP-18fSZEA1E</t>
-  </si>
-  <si>
-    <t>IP-18fSZEA1G</t>
-  </si>
-  <si>
-    <t>IP-18fSZEA2G</t>
-  </si>
-  <si>
-    <t>IP-18fSZEA2E</t>
-  </si>
-  <si>
-    <t>IP-18fKVBGTE</t>
-  </si>
-  <si>
-    <t>Practice Grade (PG)</t>
-  </si>
-  <si>
-    <t>1st Semester</t>
-  </si>
-  <si>
-    <t>2nd Semester</t>
-  </si>
-  <si>
-    <t>3rd Semester</t>
-  </si>
-  <si>
-    <t>4th Semester</t>
-  </si>
-  <si>
-    <t>6th Semester</t>
-  </si>
-  <si>
-    <t>5th Semester</t>
-  </si>
-  <si>
-    <t>Optional course</t>
-  </si>
-  <si>
     <t>Summa credit in semester</t>
   </si>
   <si>
     <t>Summa credit</t>
   </si>
   <si>
-    <t>IP-18fAA2G (weak)</t>
-  </si>
-  <si>
-    <t>IP-18fAN2G (weak)</t>
-  </si>
-  <si>
-    <t>IP-18fAB1G (weak)</t>
-  </si>
-  <si>
-    <t>IP-18fSZTG (weak)</t>
-  </si>
-  <si>
-    <t>IP-18fSZEA1G (weak)</t>
-  </si>
-  <si>
-    <t>IP-18fTKHG (weak)</t>
-  </si>
-  <si>
-    <t>Electives in semester</t>
-  </si>
-  <si>
-    <t>Obligatorys+Electives in semester</t>
-  </si>
-  <si>
-    <t>IP-18fNM1G (weak)</t>
-  </si>
-  <si>
-    <t>Electives:</t>
-  </si>
-  <si>
-    <t>Obligatory in semester</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>IP-18fSZEA2G (weak)</t>
-  </si>
-  <si>
-    <t>IP-18fAA1G (weak)</t>
-  </si>
-  <si>
-    <t>IP-18fDM1G (weak)</t>
-  </si>
-  <si>
-    <t>IP-18fAN1G (weak)</t>
-  </si>
-  <si>
-    <t>Computer Science BSc 2018 (in English, for Foreign students)</t>
-  </si>
-  <si>
-    <t>IP-18fKVFPG (weak)</t>
-  </si>
-  <si>
-    <t>IP-18fKVKRBG (weak)</t>
-  </si>
-  <si>
-    <t>IP-18fMATAG,               IP-18fPROGEG</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Labor</t>
-  </si>
-  <si>
-    <t>2+0+2+1</t>
-  </si>
-  <si>
-    <t>2+0+3+1</t>
-  </si>
-  <si>
-    <t>2+0+3+0</t>
-  </si>
-  <si>
-    <t>0+4+0+0</t>
-  </si>
-  <si>
-    <t>0+1+0+0</t>
-  </si>
-  <si>
-    <t>1+2+0+0</t>
-  </si>
-  <si>
-    <t>2+0+2+2</t>
-  </si>
-  <si>
-    <t>1+0+2+0</t>
-  </si>
-  <si>
-    <t>2+0+0+0</t>
-  </si>
-  <si>
-    <t>0+2+0+1</t>
-  </si>
-  <si>
-    <t>1+0+2+1</t>
-  </si>
-  <si>
-    <t>0+0+2+1</t>
-  </si>
-  <si>
-    <t>IP-18fPNYEG</t>
-  </si>
-  <si>
-    <t>Programming languages</t>
-  </si>
-  <si>
-    <t>1++0+1+1</t>
-  </si>
-  <si>
-    <t>0+0+2+0</t>
-  </si>
-  <si>
-    <t>1+0+1+1</t>
-  </si>
-  <si>
-    <t>2+0+0+1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP-18fSZTEG </t>
-  </si>
-  <si>
-    <t>Sotfware technology</t>
-  </si>
-  <si>
-    <t>Software technology***</t>
-  </si>
-  <si>
-    <t>Software technology ***</t>
-  </si>
-  <si>
     <t>*** Discontinued subject</t>
   </si>
   <si>
-    <t>IP-18fSZGREG (weak)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP-18fSZEA1E              </t>
-  </si>
-  <si>
-    <t>IP-18KVPRJG</t>
-  </si>
-  <si>
-    <t>GPU programming****</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t>CA: Practice with continuous assessment</t>
-  </si>
-  <si>
-    <t>IP-18KVPYEG</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>3,4,5,6</t>
-  </si>
-  <si>
-    <t>IP-18fAA2E (weak)</t>
-  </si>
-  <si>
-    <t>IP-18KVIADSE</t>
-  </si>
-  <si>
-    <t>Applied Data Science</t>
-  </si>
-  <si>
-    <t>Előfeltétel(ek)</t>
-  </si>
-  <si>
-    <t>Kód</t>
-  </si>
-  <si>
-    <t>Tanegység</t>
-  </si>
-  <si>
-    <t>Előadás</t>
-  </si>
-  <si>
-    <t>Számonkérés</t>
-  </si>
-  <si>
-    <t>Gyakorlat</t>
-  </si>
-  <si>
-    <t>Konzultáció</t>
-  </si>
-  <si>
-    <t>Kredit</t>
-  </si>
-  <si>
-    <t>Ajánlott félév</t>
   </si>
 </sst>
 </file>
@@ -967,7 +983,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1049,9 +1065,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1499,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R49" sqref="R49"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S49" sqref="S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1524,155 +1537,155 @@
   <sheetData>
     <row r="3" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
       <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="Q6" s="8"/>
     </row>
-    <row r="7" spans="1:17" ht="97" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="L7" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="N7" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="O7" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="P7" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q7" s="39" t="s">
-        <v>90</v>
+    <row r="7" spans="1:17" ht="98" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="38" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="41">
-        <v>2</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="41">
-        <v>0</v>
-      </c>
-      <c r="G8" s="41">
-        <v>2</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="I8" s="41">
-        <v>1</v>
-      </c>
-      <c r="J8" s="41">
+        <v>18</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="40">
+        <v>2</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="40">
+        <v>0</v>
+      </c>
+      <c r="G8" s="40">
+        <v>2</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="40">
+        <v>1</v>
+      </c>
+      <c r="J8" s="40">
         <v>5</v>
       </c>
-      <c r="K8" s="41">
-        <v>1</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="33"/>
+      <c r="K8" s="40">
+        <v>1</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="32"/>
     </row>
     <row r="9" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="54"/>
+        <v>24</v>
+      </c>
+      <c r="C9" s="53"/>
       <c r="D9" s="16">
         <v>2</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="F9" s="16">
         <v>0</v>
@@ -1681,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="I9" s="16">
         <v>1</v>
@@ -1693,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
@@ -1703,17 +1716,17 @@
     </row>
     <row r="10" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="54"/>
+        <v>27</v>
+      </c>
+      <c r="C10" s="53"/>
       <c r="D10" s="16">
         <v>2</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="F10" s="16">
         <v>0</v>
@@ -1722,7 +1735,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="I10" s="16">
         <v>0</v>
@@ -1734,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
@@ -1744,17 +1757,17 @@
     </row>
     <row r="11" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="54"/>
+        <v>30</v>
+      </c>
+      <c r="C11" s="53"/>
       <c r="D11" s="16">
         <v>2</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F11" s="16">
         <v>0</v>
@@ -1773,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
@@ -1783,12 +1796,12 @@
     </row>
     <row r="12" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="54"/>
+        <v>33</v>
+      </c>
+      <c r="C12" s="53"/>
       <c r="D12" s="16">
         <v>0</v>
       </c>
@@ -1800,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="I12" s="16">
         <v>0</v>
@@ -1812,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
@@ -1822,12 +1835,12 @@
     </row>
     <row r="13" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="54"/>
+        <v>37</v>
+      </c>
+      <c r="C13" s="53"/>
       <c r="D13" s="16">
         <v>0</v>
       </c>
@@ -1839,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="I13" s="16">
         <v>0</v>
@@ -1851,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="30" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
@@ -1864,14 +1877,14 @@
         <v>39</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="54"/>
+        <v>40</v>
+      </c>
+      <c r="C14" s="53"/>
       <c r="D14" s="16">
         <v>1</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="F14" s="16">
         <v>2</v>
@@ -1880,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="I14" s="16">
         <v>0</v>
@@ -1892,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
@@ -1902,19 +1915,19 @@
     </row>
     <row r="15" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>26</v>
       </c>
       <c r="D15" s="16">
         <v>2</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="F15" s="16">
         <v>0</v>
@@ -1923,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="I15" s="16">
         <v>2</v>
@@ -1936,7 +1949,7 @@
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="16" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
@@ -1945,19 +1958,19 @@
     </row>
     <row r="16" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D16" s="16">
         <v>2</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="F16" s="16">
         <v>0</v>
@@ -1966,7 +1979,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="I16" s="16">
         <v>1</v>
@@ -1979,7 +1992,7 @@
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="30" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N16" s="30"/>
       <c r="O16" s="16"/>
@@ -1988,19 +2001,19 @@
     </row>
     <row r="17" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>142</v>
+        <v>48</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>49</v>
       </c>
       <c r="D17" s="16">
         <v>1</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="F17" s="16">
         <v>0</v>
@@ -2009,7 +2022,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="I17" s="16">
         <v>0</v>
@@ -2022,7 +2035,7 @@
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="30" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="N17" s="30"/>
       <c r="O17" s="16"/>
@@ -2031,19 +2044,19 @@
     </row>
     <row r="18" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>110</v>
+        <v>52</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>53</v>
       </c>
       <c r="D18" s="16">
         <v>2</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F18" s="16">
         <v>0</v>
@@ -2063,7 +2076,7 @@
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="30" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="N18" s="30"/>
       <c r="O18" s="16"/>
@@ -2072,13 +2085,13 @@
     </row>
     <row r="19" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>116</v>
+        <v>52</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>56</v>
       </c>
       <c r="D19" s="16">
         <v>0</v>
@@ -2091,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="I19" s="16">
         <v>1</v>
@@ -2104,7 +2117,7 @@
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="30" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="N19" s="30"/>
       <c r="O19" s="16"/>
@@ -2113,19 +2126,19 @@
     </row>
     <row r="20" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>111</v>
+        <v>59</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>60</v>
       </c>
       <c r="D20" s="16">
         <v>2</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F20" s="16">
         <v>0</v>
@@ -2145,7 +2158,7 @@
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="30" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="N20" s="30"/>
       <c r="O20" s="16"/>
@@ -2154,13 +2167,13 @@
     </row>
     <row r="21" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>40</v>
+        <v>59</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>32</v>
       </c>
       <c r="D21" s="16">
         <v>0</v>
@@ -2173,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="I21" s="16">
         <v>1</v>
@@ -2186,7 +2199,7 @@
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="30" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="N21" s="30"/>
       <c r="O21" s="16"/>
@@ -2195,19 +2208,19 @@
     </row>
     <row r="22" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>112</v>
+        <v>63</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>64</v>
       </c>
       <c r="D22" s="16">
         <v>2</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F22" s="16">
         <v>0</v>
@@ -2227,7 +2240,7 @@
       </c>
       <c r="L22" s="16"/>
       <c r="M22" s="30" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="N22" s="30"/>
       <c r="O22" s="16"/>
@@ -2236,13 +2249,13 @@
     </row>
     <row r="23" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>32</v>
       </c>
       <c r="D23" s="16">
         <v>0</v>
@@ -2255,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="I23" s="16">
         <v>1</v>
@@ -2268,7 +2281,7 @@
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="30" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="N23" s="30"/>
       <c r="O23" s="16"/>
@@ -2277,19 +2290,19 @@
     </row>
     <row r="24" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>95</v>
+        <v>67</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>68</v>
       </c>
       <c r="D24" s="16">
         <v>2</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F24" s="16">
         <v>0</v>
@@ -2310,7 +2323,7 @@
       <c r="L24" s="16"/>
       <c r="M24" s="30"/>
       <c r="N24" s="30" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
@@ -2318,13 +2331,13 @@
     </row>
     <row r="25" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>43</v>
+        <v>67</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>51</v>
       </c>
       <c r="D25" s="16">
         <v>0</v>
@@ -2337,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="I25" s="16">
         <v>1</v>
@@ -2351,7 +2364,7 @@
       <c r="L25" s="16"/>
       <c r="M25" s="30"/>
       <c r="N25" s="30" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
@@ -2359,13 +2372,13 @@
     </row>
     <row r="26" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>42</v>
+        <v>71</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>47</v>
       </c>
       <c r="D26" s="16">
         <v>1</v>
@@ -2378,7 +2391,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="I26" s="16">
         <v>1</v>
@@ -2392,7 +2405,7 @@
       <c r="L26" s="16"/>
       <c r="M26" s="30"/>
       <c r="N26" s="30" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
@@ -2400,13 +2413,13 @@
     </row>
     <row r="27" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="54" t="s">
-        <v>41</v>
+        <v>74</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>45</v>
       </c>
       <c r="D27" s="16">
         <v>2</v>
@@ -2419,7 +2432,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="I27" s="16">
         <v>1</v>
@@ -2433,7 +2446,7 @@
       <c r="L27" s="16"/>
       <c r="M27" s="30"/>
       <c r="N27" s="30" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
@@ -2441,19 +2454,19 @@
     </row>
     <row r="28" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="54" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>77</v>
       </c>
       <c r="D28" s="16">
         <v>2</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F28" s="16">
         <v>0</v>
@@ -2474,7 +2487,7 @@
       <c r="L28" s="16"/>
       <c r="M28" s="30"/>
       <c r="N28" s="30" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
@@ -2482,13 +2495,13 @@
     </row>
     <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="54" t="s">
-        <v>47</v>
+        <v>76</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>62</v>
       </c>
       <c r="D29" s="16">
         <v>0</v>
@@ -2501,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="I29" s="16">
         <v>1</v>
@@ -2515,7 +2528,7 @@
       <c r="L29" s="16"/>
       <c r="M29" s="30"/>
       <c r="N29" s="30" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
@@ -2523,13 +2536,13 @@
     </row>
     <row r="30" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="54" t="s">
-        <v>45</v>
+        <v>80</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>58</v>
       </c>
       <c r="D30" s="16">
         <v>0</v>
@@ -2542,7 +2555,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="I30" s="16">
         <v>1</v>
@@ -2556,7 +2569,7 @@
       <c r="L30" s="16"/>
       <c r="M30" s="30"/>
       <c r="N30" s="30" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="O30" s="16"/>
       <c r="P30" s="16"/>
@@ -2564,28 +2577,28 @@
     </row>
     <row r="31" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="16">
+        <v>1</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="16">
+        <v>0</v>
+      </c>
+      <c r="G31" s="16">
+        <v>1</v>
+      </c>
+      <c r="H31" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="D31" s="16">
-        <v>1</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" s="16">
-        <v>0</v>
-      </c>
-      <c r="G31" s="16">
-        <v>1</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="I31" s="16">
         <v>1</v>
@@ -2600,26 +2613,26 @@
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="16" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="P31" s="16"/>
       <c r="Q31" s="17"/>
     </row>
     <row r="32" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="54" t="s">
-        <v>97</v>
+        <v>86</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>87</v>
       </c>
       <c r="D32" s="16">
         <v>2</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F32" s="16">
         <v>0</v>
@@ -2641,20 +2654,20 @@
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="16" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="P32" s="16"/>
       <c r="Q32" s="17"/>
     </row>
     <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="54" t="s">
-        <v>43</v>
+        <v>86</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>51</v>
       </c>
       <c r="D33" s="16">
         <v>0</v>
@@ -2667,7 +2680,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="I33" s="16">
         <v>0</v>
@@ -2682,26 +2695,26 @@
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
       <c r="O33" s="16" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="P33" s="16"/>
       <c r="Q33" s="17"/>
     </row>
     <row r="34" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" s="54" t="s">
-        <v>98</v>
+        <v>91</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>92</v>
       </c>
       <c r="D34" s="16">
         <v>2</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F34" s="16">
         <v>0</v>
@@ -2723,20 +2736,20 @@
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
       <c r="O34" s="16" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="P34" s="16"/>
       <c r="Q34" s="17"/>
     </row>
     <row r="35" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" s="54" t="s">
-        <v>51</v>
+        <v>94</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>73</v>
       </c>
       <c r="D35" s="16">
         <v>0</v>
@@ -2749,7 +2762,7 @@
         <v>2</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="I35" s="16">
         <v>1</v>
@@ -2764,20 +2777,20 @@
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
       <c r="O35" s="16" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="P35" s="16"/>
       <c r="Q35" s="17"/>
     </row>
     <row r="36" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="54" t="s">
-        <v>51</v>
+        <v>96</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>73</v>
       </c>
       <c r="D36" s="16">
         <v>2</v>
@@ -2790,7 +2803,7 @@
         <v>2</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="I36" s="16">
         <v>1</v>
@@ -2805,26 +2818,26 @@
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
       <c r="O36" s="16" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="P36" s="16"/>
       <c r="Q36" s="17"/>
     </row>
     <row r="37" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="53" t="s">
         <v>99</v>
       </c>
       <c r="D37" s="16">
         <v>2</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F37" s="16">
         <v>0</v>
@@ -2846,20 +2859,20 @@
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
       <c r="O37" s="16" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="P37" s="16"/>
       <c r="Q37" s="17"/>
     </row>
     <row r="38" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="54" t="s">
-        <v>45</v>
+        <v>98</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>58</v>
       </c>
       <c r="D38" s="16">
         <v>0</v>
@@ -2872,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="I38" s="16">
         <v>1</v>
@@ -2887,26 +2900,26 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="P38" s="16"/>
       <c r="Q38" s="17"/>
     </row>
     <row r="39" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="53" t="s">
         <v>103</v>
       </c>
       <c r="D39" s="16">
         <v>2</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F39" s="16">
         <v>0</v>
@@ -2928,20 +2941,20 @@
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="P39" s="16"/>
       <c r="Q39" s="17"/>
     </row>
     <row r="40" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="54" t="s">
-        <v>52</v>
+        <v>102</v>
+      </c>
+      <c r="C40" s="53" t="s">
+        <v>75</v>
       </c>
       <c r="D40" s="16">
         <v>0</v>
@@ -2954,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="I40" s="16">
         <v>1</v>
@@ -2969,20 +2982,20 @@
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
       <c r="O40" s="16" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="P40" s="16"/>
       <c r="Q40" s="17"/>
     </row>
     <row r="41" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="54" t="s">
-        <v>131</v>
+        <v>106</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>42</v>
       </c>
       <c r="D41" s="16">
         <v>1</v>
@@ -2995,7 +3008,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="I41" s="16">
         <v>1</v>
@@ -3011,25 +3024,25 @@
       <c r="N41" s="16"/>
       <c r="O41" s="16"/>
       <c r="P41" s="16" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="Q41" s="17"/>
     </row>
     <row r="42" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="54" t="s">
-        <v>100</v>
+        <v>109</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>110</v>
       </c>
       <c r="D42" s="16">
         <v>2</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F42" s="16">
         <v>0</v>
@@ -3052,21 +3065,23 @@
       <c r="N42" s="16"/>
       <c r="O42" s="16"/>
       <c r="P42" s="16" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="Q42" s="17"/>
     </row>
     <row r="43" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="16"/>
+        <v>109</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="16">
+        <v>0</v>
+      </c>
       <c r="E43" s="16"/>
       <c r="F43" s="16">
         <v>0</v>
@@ -3075,7 +3090,7 @@
         <v>2</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="I43" s="16">
         <v>1</v>
@@ -3091,25 +3106,25 @@
       <c r="N43" s="16"/>
       <c r="O43" s="16"/>
       <c r="P43" s="16" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="Q43" s="17"/>
     </row>
     <row r="44" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="54" t="s">
-        <v>151</v>
+        <v>113</v>
+      </c>
+      <c r="C44" s="53" t="s">
+        <v>114</v>
       </c>
       <c r="D44" s="16">
         <v>2</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F44" s="16">
         <v>0</v>
@@ -3132,25 +3147,25 @@
       <c r="N44" s="16"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="Q44" s="17"/>
     </row>
     <row r="45" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="54" t="s">
-        <v>63</v>
+        <v>117</v>
+      </c>
+      <c r="C45" s="53" t="s">
+        <v>118</v>
       </c>
       <c r="D45" s="16">
         <v>2</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F45" s="16">
         <v>0</v>
@@ -3173,19 +3188,19 @@
       <c r="N45" s="16"/>
       <c r="O45" s="16"/>
       <c r="P45" s="16" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="Q45" s="17"/>
     </row>
     <row r="46" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="54" t="s">
-        <v>56</v>
+        <v>117</v>
+      </c>
+      <c r="C46" s="53" t="s">
+        <v>85</v>
       </c>
       <c r="D46" s="16">
         <v>0</v>
@@ -3198,7 +3213,7 @@
         <v>2</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="I46" s="16">
         <v>1</v>
@@ -3214,25 +3229,25 @@
       <c r="N46" s="16"/>
       <c r="O46" s="16"/>
       <c r="P46" s="16" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="Q46" s="17"/>
     </row>
     <row r="47" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="54" t="s">
-        <v>109</v>
+        <v>120</v>
+      </c>
+      <c r="C47" s="53" t="s">
+        <v>121</v>
       </c>
       <c r="D47" s="16">
         <v>2</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F47" s="16">
         <v>0</v>
@@ -3255,19 +3270,19 @@
       <c r="N47" s="16"/>
       <c r="O47" s="16"/>
       <c r="P47" s="16" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="Q47" s="17"/>
     </row>
     <row r="48" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="54" t="s">
-        <v>143</v>
+        <v>120</v>
+      </c>
+      <c r="C48" s="53" t="s">
+        <v>123</v>
       </c>
       <c r="D48" s="16">
         <v>0</v>
@@ -3280,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="I48" s="16">
         <v>1</v>
@@ -3296,19 +3311,19 @@
       <c r="N48" s="16"/>
       <c r="O48" s="16"/>
       <c r="P48" s="16" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="Q48" s="17"/>
     </row>
     <row r="49" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" s="54" t="s">
-        <v>52</v>
+        <v>125</v>
+      </c>
+      <c r="C49" s="53" t="s">
+        <v>75</v>
       </c>
       <c r="D49" s="16">
         <v>0</v>
@@ -3321,7 +3336,7 @@
         <v>2</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="I49" s="16">
         <v>1</v>
@@ -3337,132 +3352,116 @@
       <c r="N49" s="16"/>
       <c r="O49" s="16"/>
       <c r="P49" s="16" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="Q49" s="17"/>
     </row>
     <row r="50" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="55"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44">
+      <c r="A50" s="33"/>
+      <c r="B50" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="54"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43">
         <v>127</v>
       </c>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44">
+      <c r="K50" s="43"/>
+      <c r="L50" s="43">
         <v>29</v>
       </c>
-      <c r="M50" s="44">
+      <c r="M50" s="43">
         <v>30</v>
       </c>
-      <c r="N50" s="44">
+      <c r="N50" s="43">
         <v>22</v>
       </c>
-      <c r="O50" s="44">
+      <c r="O50" s="43">
         <v>22</v>
       </c>
-      <c r="P50" s="44">
+      <c r="P50" s="43">
         <v>24</v>
       </c>
-      <c r="Q50" s="45"/>
+      <c r="Q50" s="44"/>
     </row>
     <row r="51" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="31"/>
-      <c r="B51" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="33"/>
-    </row>
-    <row r="52" spans="1:20" ht="96" x14ac:dyDescent="0.2">
-      <c r="A52" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B52" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="D52" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="E52" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="F52" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="G52" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="H52" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="I52" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="J52" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="K52" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="L52" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="M52" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="N52" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="O52" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="P52" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q52" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="97" x14ac:dyDescent="0.2">
+      <c r="A52" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J52" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="N52" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="O52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="P52" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q52" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D53" s="16">
         <v>1</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="F53" s="16">
         <v>0</v>
@@ -3471,7 +3470,7 @@
         <v>2</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="I53" s="16">
         <v>0</v>
@@ -3480,36 +3479,36 @@
         <v>3</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="L53" s="16"/>
       <c r="M53" s="16"/>
       <c r="N53" s="16" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="O53" s="16" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="P53" s="16" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="Q53" s="17"/>
     </row>
-    <row r="54" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54" s="56" t="s">
-        <v>115</v>
+        <v>132</v>
+      </c>
+      <c r="C54" s="55" t="s">
+        <v>133</v>
       </c>
       <c r="D54" s="16">
         <v>2</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F54" s="16">
         <v>0</v>
@@ -3531,22 +3530,22 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
       <c r="O54" s="16" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="P54" s="16"/>
       <c r="Q54" s="17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D55" s="16">
         <v>0</v>
@@ -3559,7 +3558,7 @@
         <v>2</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="I55" s="16">
         <v>1</v>
@@ -3574,28 +3573,28 @@
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
       <c r="O55" s="16" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="P55" s="16"/>
       <c r="Q55" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D56" s="16">
         <v>2</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F56" s="16">
         <v>0</v>
@@ -3611,32 +3610,32 @@
         <v>3</v>
       </c>
       <c r="K56" s="19" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="L56" s="16"/>
       <c r="M56" s="16"/>
       <c r="N56" s="16" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="O56" s="16"/>
       <c r="P56" s="16"/>
       <c r="Q56" s="17"/>
     </row>
-    <row r="57" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C57" s="56" t="s">
-        <v>114</v>
+        <v>139</v>
+      </c>
+      <c r="C57" s="55" t="s">
+        <v>140</v>
       </c>
       <c r="D57" s="16">
         <v>2</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F57" s="16">
         <v>0</v>
@@ -3657,23 +3656,23 @@
       <c r="L57" s="16"/>
       <c r="M57" s="16"/>
       <c r="N57" s="16" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="O57" s="16"/>
       <c r="P57" s="16" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="Q57" s="17"/>
     </row>
-    <row r="58" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D58" s="16">
         <v>0</v>
@@ -3686,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="I58" s="16">
         <v>1</v>
@@ -3700,23 +3699,23 @@
       <c r="L58" s="16"/>
       <c r="M58" s="16"/>
       <c r="N58" s="16" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="O58" s="16"/>
       <c r="P58" s="16" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="Q58" s="17"/>
     </row>
-    <row r="59" spans="1:20" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="54" t="s">
-        <v>131</v>
+        <v>143</v>
+      </c>
+      <c r="C59" s="53" t="s">
+        <v>42</v>
       </c>
       <c r="D59" s="16">
         <v>0</v>
@@ -3729,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="I59" s="16">
         <v>1</v>
@@ -3745,25 +3744,25 @@
       <c r="N59" s="16"/>
       <c r="O59" s="16"/>
       <c r="P59" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q59" s="51"/>
-    </row>
-    <row r="60" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="Q59" s="50"/>
+    </row>
+    <row r="60" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="56" t="s">
-        <v>114</v>
+        <v>145</v>
+      </c>
+      <c r="C60" s="55" t="s">
+        <v>140</v>
       </c>
       <c r="D60" s="16">
         <v>2</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F60" s="16">
         <v>0</v>
@@ -3786,19 +3785,19 @@
       <c r="N60" s="16"/>
       <c r="O60" s="16"/>
       <c r="P60" s="16" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="Q60" s="17"/>
     </row>
-    <row r="61" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="54" t="s">
-        <v>41</v>
+        <v>145</v>
+      </c>
+      <c r="C61" s="53" t="s">
+        <v>45</v>
       </c>
       <c r="D61" s="16">
         <v>0</v>
@@ -3811,7 +3810,7 @@
         <v>2</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="I61" s="16">
         <v>0</v>
@@ -3827,25 +3826,26 @@
       <c r="N61" s="16"/>
       <c r="O61" s="16"/>
       <c r="P61" s="16" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="Q61" s="17"/>
-    </row>
-    <row r="62" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T61" s="51"/>
+    </row>
+    <row r="62" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C62" s="54" t="s">
-        <v>41</v>
+        <v>148</v>
+      </c>
+      <c r="C62" s="53" t="s">
+        <v>45</v>
       </c>
       <c r="D62" s="16">
         <v>2</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="F62" s="16">
         <v>0</v>
@@ -3854,7 +3854,7 @@
         <v>2</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="I62" s="16">
         <v>1</v>
@@ -3870,25 +3870,26 @@
       <c r="N62" s="16"/>
       <c r="O62" s="16"/>
       <c r="P62" s="16" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="Q62" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="B63" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="T62" s="51"/>
+    </row>
+    <row r="63" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="67" t="s">
         <v>149</v>
+      </c>
+      <c r="B63" s="60" t="s">
+        <v>150</v>
       </c>
       <c r="C63" s="22"/>
       <c r="D63" s="16">
         <v>2</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F63" s="16">
         <v>0</v>
@@ -3904,138 +3905,136 @@
         <v>5</v>
       </c>
       <c r="K63" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L63" s="16"/>
+      <c r="M63" s="61"/>
+      <c r="N63" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O63" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="P63" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q63" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="28"/>
+      <c r="D64" s="70">
+        <v>2</v>
+      </c>
+      <c r="E64" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="F64" s="70">
+        <v>0</v>
+      </c>
+      <c r="G64" s="70">
+        <v>0</v>
+      </c>
+      <c r="H64" s="72"/>
+      <c r="I64" s="72">
+        <v>0</v>
+      </c>
+      <c r="J64" s="70">
+        <v>2</v>
+      </c>
+      <c r="K64" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="L64" s="71"/>
+      <c r="M64" s="73"/>
+      <c r="N64" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="O64" s="71"/>
+      <c r="P64" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q64" s="44"/>
+    </row>
+    <row r="65" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="62"/>
+      <c r="B65" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="64"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="65">
+        <v>23</v>
+      </c>
+      <c r="K65" s="65"/>
+      <c r="L65" s="65"/>
+      <c r="M65" s="65"/>
+      <c r="N65" s="65">
+        <v>9</v>
+      </c>
+      <c r="O65" s="65">
+        <v>0</v>
+      </c>
+      <c r="P65" s="65">
+        <v>6</v>
+      </c>
+      <c r="Q65" s="66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="45"/>
+      <c r="B66" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="57"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="48">
         <v>150</v>
       </c>
-      <c r="L63" s="16"/>
-      <c r="M63" s="62"/>
-      <c r="N63" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="O63" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="P63" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q63" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="T63" s="52"/>
-    </row>
-    <row r="64" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="B64" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="C64" s="28"/>
-      <c r="D64" s="71">
-        <v>2</v>
-      </c>
-      <c r="E64" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="F64" s="71">
-        <v>0</v>
-      </c>
-      <c r="G64" s="71">
-        <v>0</v>
-      </c>
-      <c r="H64" s="73"/>
-      <c r="I64" s="73">
-        <v>0</v>
-      </c>
-      <c r="J64" s="71">
-        <v>2</v>
-      </c>
-      <c r="K64" s="72">
-        <v>3.5</v>
-      </c>
-      <c r="L64" s="72"/>
-      <c r="M64" s="74"/>
-      <c r="N64" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="O64" s="72"/>
-      <c r="P64" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q64" s="45"/>
-      <c r="T64" s="52"/>
-    </row>
-    <row r="65" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="63"/>
-      <c r="B65" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="C65" s="65"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="66"/>
-      <c r="I65" s="66"/>
-      <c r="J65" s="66">
-        <v>23</v>
-      </c>
-      <c r="K65" s="66"/>
-      <c r="L65" s="66"/>
-      <c r="M65" s="66"/>
-      <c r="N65" s="66">
-        <v>9</v>
-      </c>
-      <c r="O65" s="66">
-        <v>0</v>
-      </c>
-      <c r="P65" s="66">
-        <v>6</v>
-      </c>
-      <c r="Q65" s="67">
+      <c r="K66" s="47"/>
+      <c r="L66" s="47">
+        <v>29</v>
+      </c>
+      <c r="M66" s="47">
+        <v>30</v>
+      </c>
+      <c r="N66" s="47">
+        <v>31</v>
+      </c>
+      <c r="O66" s="47">
+        <v>22</v>
+      </c>
+      <c r="P66" s="47">
+        <v>30</v>
+      </c>
+      <c r="Q66" s="49">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="46"/>
-      <c r="B66" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C66" s="58"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="49">
-        <v>150</v>
-      </c>
-      <c r="K66" s="48"/>
-      <c r="L66" s="48">
-        <v>29</v>
-      </c>
-      <c r="M66" s="48">
-        <v>30</v>
-      </c>
-      <c r="N66" s="48">
-        <v>31</v>
-      </c>
-      <c r="O66" s="48">
-        <v>22</v>
-      </c>
-      <c r="P66" s="48">
-        <v>30</v>
-      </c>
-      <c r="Q66" s="50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11"/>
       <c r="B67" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C67" s="59"/>
+        <v>156</v>
+      </c>
+      <c r="C67" s="58"/>
       <c r="D67" s="21"/>
       <c r="E67" s="21"/>
       <c r="F67" s="21"/>
@@ -4057,14 +4056,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" s="59"/>
+        <v>158</v>
+      </c>
+      <c r="C68" s="58"/>
       <c r="D68" s="21"/>
       <c r="E68" s="21"/>
       <c r="F68" s="21"/>
@@ -4084,12 +4083,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="11"/>
       <c r="B69" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C69" s="60"/>
+        <v>159</v>
+      </c>
+      <c r="C69" s="59"/>
       <c r="D69" s="24"/>
       <c r="E69" s="24"/>
       <c r="F69" s="24"/>
@@ -4117,12 +4116,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="B70" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C70" s="57"/>
+        <v>160</v>
+      </c>
+      <c r="C70" s="56"/>
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
       <c r="F70" s="26"/>
@@ -4141,46 +4140,46 @@
       <c r="Q70" s="29"/>
     </row>
     <row r="73" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="79" t="s">
-        <v>141</v>
-      </c>
-      <c r="B73" s="79"/>
-      <c r="C73" s="79"/>
-      <c r="D73" s="79"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="79"/>
-      <c r="G73" s="79"/>
-      <c r="H73" s="79"/>
-      <c r="I73" s="79"/>
-      <c r="J73" s="79"/>
-      <c r="K73" s="79"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="79"/>
-      <c r="N73" s="79"/>
-      <c r="O73" s="79"/>
-      <c r="P73" s="79"/>
-      <c r="Q73" s="79"/>
+      <c r="A73" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="B73" s="78"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="78"/>
+      <c r="E73" s="78"/>
+      <c r="F73" s="78"/>
+      <c r="G73" s="78"/>
+      <c r="H73" s="78"/>
+      <c r="I73" s="78"/>
+      <c r="J73" s="78"/>
+      <c r="K73" s="78"/>
+      <c r="L73" s="78"/>
+      <c r="M73" s="78"/>
+      <c r="N73" s="78"/>
+      <c r="O73" s="78"/>
+      <c r="P73" s="78"/>
+      <c r="Q73" s="78"/>
     </row>
     <row r="75" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="79" t="s">
-        <v>147</v>
-      </c>
-      <c r="B75" s="79"/>
-      <c r="C75" s="79"/>
-      <c r="D75" s="79"/>
-      <c r="E75" s="79"/>
-      <c r="F75" s="79"/>
-      <c r="G75" s="79"/>
-      <c r="H75" s="79"/>
-      <c r="I75" s="79"/>
-      <c r="J75" s="79"/>
-      <c r="K75" s="79"/>
-      <c r="L75" s="79"/>
-      <c r="M75" s="79"/>
-      <c r="N75" s="79"/>
-      <c r="O75" s="79"/>
-      <c r="P75" s="79"/>
-      <c r="Q75" s="79"/>
+      <c r="A75" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" s="78"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="78"/>
+      <c r="E75" s="78"/>
+      <c r="F75" s="78"/>
+      <c r="G75" s="78"/>
+      <c r="H75" s="78"/>
+      <c r="I75" s="78"/>
+      <c r="J75" s="78"/>
+      <c r="K75" s="78"/>
+      <c r="L75" s="78"/>
+      <c r="M75" s="78"/>
+      <c r="N75" s="78"/>
+      <c r="O75" s="78"/>
+      <c r="P75" s="78"/>
+      <c r="Q75" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4244,22 +4243,111 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <TaxCatchAll xmlns="64cee142-9623-4b63-8ea8-1d4facd6545a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0bdf3a53-275c-4001-b611-e41331286eb1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x010100CA947E63DBB18C43B0DCD636FEFAAF82" ma:contentTypeVersion="0" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="105f5595a234019decd898e650ffc1cd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7af5af6639fca6992108c272a16dc73">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x010100CA947E63DBB18C43B0DCD636FEFAAF82" ma:contentTypeVersion="10" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="add355b8eb8a1d07a5c296ebc5fa18c4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0bdf3a53-275c-4001-b611-e41331286eb1" xmlns:ns3="64cee142-9623-4b63-8ea8-1d4facd6545a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="39c3d52e67d593269f3de29aa75e9200" ns2:_="" ns3:_="">
+    <xsd:import namespace="0bdf3a53-275c-4001-b611-e41331286eb1"/>
+    <xsd:import namespace="64cee142-9623-4b63-8ea8-1d4facd6545a"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
-              <xsd:all/>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
             </xsd:complexType>
           </xsd:element>
         </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0bdf3a53-275c-4001-b611-e41331286eb1" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Képcímkék" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="34308edd-cbe0-477a-9645-3c56fd718a83" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="64cee142-9623-4b63-8ea8-1d4facd6545a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{f1ba0df1-07b1-4dfb-b07f-236e884041b3}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="64cee142-9623-4b63-8ea8-1d4facd6545a">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
@@ -4362,44 +4450,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E11E5BB-D532-4492-9D3A-3684DEAD3184}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="64cee142-9623-4b63-8ea8-1d4facd6545a"/>
+    <ds:schemaRef ds:uri="0bdf3a53-275c-4001-b611-e41331286eb1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF89BEA5-8A6A-4D48-90CC-52A611D335CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C094DEF4-EC90-43B8-9BD8-CA2179F2E790}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51543AC5-E93B-4960-86D0-CA14017C79AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0bdf3a53-275c-4001-b611-e41331286eb1"/>
+    <ds:schemaRef ds:uri="64cee142-9623-4b63-8ea8-1d4facd6545a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C094DEF4-EC90-43B8-9BD8-CA2179F2E790}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/backend/django_subject_manager/input/angol.xlsx
+++ b/backend/django_subject_manager/input/angol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathearnoldattila/Arnold/egyetem/6felev/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathearnoldattila/Arnold/egyetem/6felev/subject_manager/backend/django_subject_manager/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FBE782-C12F-E342-99BB-671CCDABF9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B6DBC2-02E8-5E49-A0D0-B73C1651DC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24240" windowHeight="13300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Angol BSc" sheetId="1" r:id="rId1"/>
@@ -1512,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S49" sqref="S49"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T48" sqref="T48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4242,6 +4242,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="64cee142-9623-4b63-8ea8-1d4facd6545a" xsi:nil="true"/>
@@ -4250,15 +4259,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4451,20 +4451,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C094DEF4-EC90-43B8-9BD8-CA2179F2E790}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E11E5BB-D532-4492-9D3A-3684DEAD3184}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="64cee142-9623-4b63-8ea8-1d4facd6545a"/>
     <ds:schemaRef ds:uri="0bdf3a53-275c-4001-b611-e41331286eb1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C094DEF4-EC90-43B8-9BD8-CA2179F2E790}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/backend/django_subject_manager/input/angol.xlsx
+++ b/backend/django_subject_manager/input/angol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathearnoldattila/Arnold/egyetem/6felev/subject_manager/backend/django_subject_manager/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B6DBC2-02E8-5E49-A0D0-B73C1651DC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED7118C-A4ED-8345-A69B-8CA6635A1226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Angol BSc" sheetId="1" r:id="rId1"/>
@@ -41,39 +41,21 @@
     <t>Computer Science BSc 2018 (in English, for Foreign students)</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Course</t>
-  </si>
-  <si>
-    <t>Előfeltétel 1</t>
-  </si>
-  <si>
     <t>Lecture (L)</t>
   </si>
   <si>
     <t>Exam €</t>
   </si>
   <si>
-    <t>Practice (Pr</t>
-  </si>
-  <si>
     <t>Labor</t>
   </si>
   <si>
-    <t>Practice Grade (PG)</t>
-  </si>
-  <si>
     <t>Consultation</t>
   </si>
   <si>
     <t>Credit</t>
   </si>
   <si>
-    <t>Semester</t>
-  </si>
-  <si>
     <t>1st Semester</t>
   </si>
   <si>
@@ -525,6 +507,24 @@
   </si>
   <si>
     <t>CA: Practice with continuous assessment</t>
+  </si>
+  <si>
+    <t>Subject Code</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Prerequisite</t>
+  </si>
+  <si>
+    <t>Practice (Pr)</t>
+  </si>
+  <si>
+    <t>Form of assessment</t>
+  </si>
+  <si>
+    <t>Recommended Semester</t>
   </si>
 </sst>
 </file>
@@ -1512,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T48" sqref="T48"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T64" sqref="T64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1579,72 +1579,72 @@
       <c r="A6" s="9"/>
       <c r="Q6" s="8"/>
     </row>
-    <row r="7" spans="1:17" ht="98" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="126" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="C7" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="H7" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="J7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="K7" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="L7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="M7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="N7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="O7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="P7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="Q7" s="38" t="s">
         <v>11</v>
-      </c>
-      <c r="L7" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="38" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="40">
         <v>2</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F8" s="40">
         <v>0</v>
@@ -1653,7 +1653,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I8" s="40">
         <v>1</v>
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="41" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M8" s="40"/>
       <c r="N8" s="40"/>
@@ -1675,17 +1675,17 @@
     </row>
     <row r="9" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="16">
         <v>2</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F9" s="16">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I9" s="16">
         <v>1</v>
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
@@ -1716,17 +1716,17 @@
     </row>
     <row r="10" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="16">
         <v>2</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F10" s="16">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I10" s="16">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
@@ -1757,17 +1757,17 @@
     </row>
     <row r="11" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="16">
         <v>2</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F11" s="16">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
@@ -1796,10 +1796,10 @@
     </row>
     <row r="12" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="16">
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I12" s="16">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
@@ -1835,10 +1835,10 @@
     </row>
     <row r="13" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="16">
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I13" s="16">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="30" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
@@ -1874,17 +1874,17 @@
     </row>
     <row r="14" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="16">
         <v>1</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F14" s="16">
         <v>2</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I14" s="16">
         <v>0</v>
@@ -1905,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
@@ -1915,19 +1915,19 @@
     </row>
     <row r="15" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D15" s="16">
         <v>2</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F15" s="16">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I15" s="16">
         <v>2</v>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
@@ -1958,19 +1958,19 @@
     </row>
     <row r="16" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D16" s="16">
         <v>2</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F16" s="16">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I16" s="16">
         <v>1</v>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="30" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N16" s="30"/>
       <c r="O16" s="16"/>
@@ -2001,19 +2001,19 @@
     </row>
     <row r="17" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D17" s="16">
         <v>1</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F17" s="16">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I17" s="16">
         <v>0</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N17" s="30"/>
       <c r="O17" s="16"/>
@@ -2044,19 +2044,19 @@
     </row>
     <row r="18" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D18" s="16">
         <v>2</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F18" s="16">
         <v>0</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N18" s="30"/>
       <c r="O18" s="16"/>
@@ -2085,13 +2085,13 @@
     </row>
     <row r="19" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D19" s="16">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I19" s="16">
         <v>1</v>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N19" s="30"/>
       <c r="O19" s="16"/>
@@ -2126,19 +2126,19 @@
     </row>
     <row r="20" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D20" s="16">
         <v>2</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F20" s="16">
         <v>0</v>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N20" s="30"/>
       <c r="O20" s="16"/>
@@ -2167,13 +2167,13 @@
     </row>
     <row r="21" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D21" s="16">
         <v>0</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I21" s="16">
         <v>1</v>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N21" s="30"/>
       <c r="O21" s="16"/>
@@ -2208,19 +2208,19 @@
     </row>
     <row r="22" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D22" s="16">
         <v>2</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F22" s="16">
         <v>0</v>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="L22" s="16"/>
       <c r="M22" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N22" s="30"/>
       <c r="O22" s="16"/>
@@ -2249,13 +2249,13 @@
     </row>
     <row r="23" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D23" s="16">
         <v>0</v>
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I23" s="16">
         <v>1</v>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N23" s="30"/>
       <c r="O23" s="16"/>
@@ -2290,19 +2290,19 @@
     </row>
     <row r="24" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D24" s="16">
         <v>2</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F24" s="16">
         <v>0</v>
@@ -2323,7 +2323,7 @@
       <c r="L24" s="16"/>
       <c r="M24" s="30"/>
       <c r="N24" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
@@ -2331,13 +2331,13 @@
     </row>
     <row r="25" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D25" s="16">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I25" s="16">
         <v>1</v>
@@ -2364,7 +2364,7 @@
       <c r="L25" s="16"/>
       <c r="M25" s="30"/>
       <c r="N25" s="30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
@@ -2372,13 +2372,13 @@
     </row>
     <row r="26" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D26" s="16">
         <v>1</v>
@@ -2391,7 +2391,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I26" s="16">
         <v>1</v>
@@ -2405,7 +2405,7 @@
       <c r="L26" s="16"/>
       <c r="M26" s="30"/>
       <c r="N26" s="30" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
@@ -2413,13 +2413,13 @@
     </row>
     <row r="27" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D27" s="16">
         <v>2</v>
@@ -2432,7 +2432,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I27" s="16">
         <v>1</v>
@@ -2446,7 +2446,7 @@
       <c r="L27" s="16"/>
       <c r="M27" s="30"/>
       <c r="N27" s="30" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
@@ -2454,19 +2454,19 @@
     </row>
     <row r="28" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D28" s="16">
         <v>2</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F28" s="16">
         <v>0</v>
@@ -2487,7 +2487,7 @@
       <c r="L28" s="16"/>
       <c r="M28" s="30"/>
       <c r="N28" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
@@ -2495,13 +2495,13 @@
     </row>
     <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C29" s="53" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D29" s="16">
         <v>0</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I29" s="16">
         <v>1</v>
@@ -2528,7 +2528,7 @@
       <c r="L29" s="16"/>
       <c r="M29" s="30"/>
       <c r="N29" s="30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
@@ -2536,13 +2536,13 @@
     </row>
     <row r="30" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D30" s="16">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I30" s="16">
         <v>1</v>
@@ -2569,7 +2569,7 @@
       <c r="L30" s="16"/>
       <c r="M30" s="30"/>
       <c r="N30" s="30" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O30" s="16"/>
       <c r="P30" s="16"/>
@@ -2577,19 +2577,19 @@
     </row>
     <row r="31" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D31" s="16">
         <v>1</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F31" s="16">
         <v>0</v>
@@ -2598,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I31" s="16">
         <v>1</v>
@@ -2613,26 +2613,26 @@
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="16" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P31" s="16"/>
       <c r="Q31" s="17"/>
     </row>
     <row r="32" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D32" s="16">
         <v>2</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F32" s="16">
         <v>0</v>
@@ -2654,20 +2654,20 @@
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="P32" s="16"/>
       <c r="Q32" s="17"/>
     </row>
     <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D33" s="16">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I33" s="16">
         <v>0</v>
@@ -2695,26 +2695,26 @@
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
       <c r="O33" s="16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="P33" s="16"/>
       <c r="Q33" s="17"/>
     </row>
     <row r="34" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D34" s="16">
         <v>2</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F34" s="16">
         <v>0</v>
@@ -2736,20 +2736,20 @@
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
       <c r="O34" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="P34" s="16"/>
       <c r="Q34" s="17"/>
     </row>
     <row r="35" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D35" s="16">
         <v>0</v>
@@ -2762,7 +2762,7 @@
         <v>2</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I35" s="16">
         <v>1</v>
@@ -2777,20 +2777,20 @@
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
       <c r="O35" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="P35" s="16"/>
       <c r="Q35" s="17"/>
     </row>
     <row r="36" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D36" s="16">
         <v>2</v>
@@ -2803,7 +2803,7 @@
         <v>2</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I36" s="16">
         <v>1</v>
@@ -2818,26 +2818,26 @@
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
       <c r="O36" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P36" s="16"/>
       <c r="Q36" s="17"/>
     </row>
     <row r="37" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D37" s="16">
         <v>2</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F37" s="16">
         <v>0</v>
@@ -2859,20 +2859,20 @@
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
       <c r="O37" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="P37" s="16"/>
       <c r="Q37" s="17"/>
     </row>
     <row r="38" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D38" s="16">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I38" s="16">
         <v>1</v>
@@ -2900,26 +2900,26 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P38" s="16"/>
       <c r="Q38" s="17"/>
     </row>
     <row r="39" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D39" s="16">
         <v>2</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F39" s="16">
         <v>0</v>
@@ -2941,20 +2941,20 @@
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="P39" s="16"/>
       <c r="Q39" s="17"/>
     </row>
     <row r="40" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C40" s="53" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D40" s="16">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I40" s="16">
         <v>1</v>
@@ -2982,20 +2982,20 @@
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
       <c r="O40" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P40" s="16"/>
       <c r="Q40" s="17"/>
     </row>
     <row r="41" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D41" s="16">
         <v>1</v>
@@ -3008,7 +3008,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I41" s="16">
         <v>1</v>
@@ -3024,25 +3024,25 @@
       <c r="N41" s="16"/>
       <c r="O41" s="16"/>
       <c r="P41" s="16" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="Q41" s="17"/>
     </row>
     <row r="42" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D42" s="16">
         <v>2</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F42" s="16">
         <v>0</v>
@@ -3065,19 +3065,19 @@
       <c r="N42" s="16"/>
       <c r="O42" s="16"/>
       <c r="P42" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q42" s="17"/>
     </row>
     <row r="43" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C43" s="53" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D43" s="16">
         <v>0</v>
@@ -3090,7 +3090,7 @@
         <v>2</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I43" s="16">
         <v>1</v>
@@ -3106,25 +3106,25 @@
       <c r="N43" s="16"/>
       <c r="O43" s="16"/>
       <c r="P43" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q43" s="17"/>
     </row>
     <row r="44" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C44" s="53" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D44" s="16">
         <v>2</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F44" s="16">
         <v>0</v>
@@ -3147,25 +3147,25 @@
       <c r="N44" s="16"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="Q44" s="17"/>
     </row>
     <row r="45" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C45" s="53" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D45" s="16">
         <v>2</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F45" s="16">
         <v>0</v>
@@ -3188,19 +3188,19 @@
       <c r="N45" s="16"/>
       <c r="O45" s="16"/>
       <c r="P45" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q45" s="17"/>
     </row>
     <row r="46" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C46" s="53" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D46" s="16">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>2</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I46" s="16">
         <v>1</v>
@@ -3229,25 +3229,25 @@
       <c r="N46" s="16"/>
       <c r="O46" s="16"/>
       <c r="P46" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q46" s="17"/>
     </row>
     <row r="47" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C47" s="53" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D47" s="16">
         <v>2</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F47" s="16">
         <v>0</v>
@@ -3270,19 +3270,19 @@
       <c r="N47" s="16"/>
       <c r="O47" s="16"/>
       <c r="P47" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q47" s="17"/>
     </row>
     <row r="48" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C48" s="53" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D48" s="16">
         <v>0</v>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I48" s="16">
         <v>1</v>
@@ -3311,19 +3311,19 @@
       <c r="N48" s="16"/>
       <c r="O48" s="16"/>
       <c r="P48" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q48" s="17"/>
     </row>
     <row r="49" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C49" s="53" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D49" s="16">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>2</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I49" s="16">
         <v>1</v>
@@ -3352,14 +3352,14 @@
       <c r="N49" s="16"/>
       <c r="O49" s="16"/>
       <c r="P49" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q49" s="17"/>
     </row>
     <row r="50" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="33"/>
       <c r="B50" s="42" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C50" s="54"/>
       <c r="D50" s="43"/>
@@ -3391,77 +3391,77 @@
     </row>
     <row r="51" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="97" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="125" x14ac:dyDescent="0.2">
       <c r="A52" s="34" t="s">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="C52" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="G52" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="36" t="s">
+      <c r="H52" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="I52" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="36" t="s">
+      <c r="J52" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="36" t="s">
+      <c r="K52" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="L52" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="36" t="s">
+      <c r="M52" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H52" s="36" t="s">
+      <c r="N52" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="36" t="s">
+      <c r="O52" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="36" t="s">
+      <c r="P52" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="K52" s="37" t="s">
+      <c r="Q52" s="38" t="s">
         <v>11</v>
-      </c>
-      <c r="L52" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="N52" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="O52" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="P52" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q52" s="38" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D53" s="16">
         <v>1</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F53" s="16">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>2</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I53" s="16">
         <v>0</v>
@@ -3479,36 +3479,36 @@
         <v>3</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L53" s="16"/>
       <c r="M53" s="16"/>
       <c r="N53" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O53" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P53" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q53" s="17"/>
     </row>
     <row r="54" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C54" s="55" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D54" s="16">
         <v>2</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F54" s="16">
         <v>0</v>
@@ -3530,22 +3530,22 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
       <c r="O54" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="P54" s="16"/>
       <c r="Q54" s="17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D55" s="16">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>2</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I55" s="16">
         <v>1</v>
@@ -3573,28 +3573,28 @@
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
       <c r="O55" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="P55" s="16"/>
       <c r="Q55" s="17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D56" s="16">
         <v>2</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F56" s="16">
         <v>0</v>
@@ -3610,12 +3610,12 @@
         <v>3</v>
       </c>
       <c r="K56" s="19" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="L56" s="16"/>
       <c r="M56" s="16"/>
       <c r="N56" s="16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O56" s="16"/>
       <c r="P56" s="16"/>
@@ -3623,19 +3623,19 @@
     </row>
     <row r="57" spans="1:20" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C57" s="55" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D57" s="16">
         <v>2</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F57" s="16">
         <v>0</v>
@@ -3656,23 +3656,23 @@
       <c r="L57" s="16"/>
       <c r="M57" s="16"/>
       <c r="N57" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O57" s="16"/>
       <c r="P57" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q57" s="17"/>
     </row>
     <row r="58" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D58" s="16">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I58" s="16">
         <v>1</v>
@@ -3699,23 +3699,23 @@
       <c r="L58" s="16"/>
       <c r="M58" s="16"/>
       <c r="N58" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="O58" s="16"/>
       <c r="P58" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q58" s="17"/>
     </row>
     <row r="59" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C59" s="53" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D59" s="16">
         <v>0</v>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I59" s="16">
         <v>1</v>
@@ -3744,25 +3744,25 @@
       <c r="N59" s="16"/>
       <c r="O59" s="16"/>
       <c r="P59" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q59" s="50"/>
     </row>
     <row r="60" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C60" s="55" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D60" s="16">
         <v>2</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F60" s="16">
         <v>0</v>
@@ -3785,19 +3785,19 @@
       <c r="N60" s="16"/>
       <c r="O60" s="16"/>
       <c r="P60" s="16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="Q60" s="17"/>
     </row>
     <row r="61" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C61" s="53" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D61" s="16">
         <v>0</v>
@@ -3810,7 +3810,7 @@
         <v>2</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I61" s="16">
         <v>0</v>
@@ -3826,26 +3826,26 @@
       <c r="N61" s="16"/>
       <c r="O61" s="16"/>
       <c r="P61" s="16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Q61" s="17"/>
       <c r="T61" s="51"/>
     </row>
     <row r="62" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C62" s="53" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D62" s="16">
         <v>2</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F62" s="16">
         <v>0</v>
@@ -3854,7 +3854,7 @@
         <v>2</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I62" s="16">
         <v>1</v>
@@ -3870,26 +3870,26 @@
       <c r="N62" s="16"/>
       <c r="O62" s="16"/>
       <c r="P62" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q62" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="T62" s="51"/>
     </row>
     <row r="63" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="67" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B63" s="60" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C63" s="22"/>
       <c r="D63" s="16">
         <v>2</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F63" s="16">
         <v>0</v>
@@ -3905,36 +3905,36 @@
         <v>5</v>
       </c>
       <c r="K63" s="16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L63" s="16"/>
       <c r="M63" s="61"/>
       <c r="N63" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O63" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P63" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q63" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="68" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B64" s="69" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C64" s="28"/>
       <c r="D64" s="70">
         <v>2</v>
       </c>
       <c r="E64" s="71" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F64" s="70">
         <v>0</v>
@@ -3955,18 +3955,18 @@
       <c r="L64" s="71"/>
       <c r="M64" s="73"/>
       <c r="N64" s="71" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O64" s="71"/>
       <c r="P64" s="71" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q64" s="44"/>
     </row>
     <row r="65" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="62"/>
       <c r="B65" s="63" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C65" s="64"/>
       <c r="D65" s="65"/>
@@ -3997,7 +3997,7 @@
     <row r="66" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="45"/>
       <c r="B66" s="46" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C66" s="57"/>
       <c r="D66" s="47"/>
@@ -4032,7 +4032,7 @@
     <row r="67" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11"/>
       <c r="B67" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C67" s="58"/>
       <c r="D67" s="21"/>
@@ -4058,10 +4058,10 @@
     </row>
     <row r="68" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C68" s="58"/>
       <c r="D68" s="21"/>
@@ -4086,7 +4086,7 @@
     <row r="69" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="11"/>
       <c r="B69" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="24"/>
@@ -4119,7 +4119,7 @@
     <row r="70" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="B70" s="13" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C70" s="56"/>
       <c r="D70" s="26"/>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="73" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="78" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B73" s="78"/>
       <c r="C73" s="78"/>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="75" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="78" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B75" s="78"/>
       <c r="C75" s="78"/>
@@ -4242,26 +4242,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="64cee142-9623-4b63-8ea8-1d4facd6545a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0bdf3a53-275c-4001-b611-e41331286eb1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x010100CA947E63DBB18C43B0DCD636FEFAAF82" ma:contentTypeVersion="10" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="add355b8eb8a1d07a5c296ebc5fa18c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0bdf3a53-275c-4001-b611-e41331286eb1" xmlns:ns3="64cee142-9623-4b63-8ea8-1d4facd6545a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="39c3d52e67d593269f3de29aa75e9200" ns2:_="" ns3:_="">
     <xsd:import namespace="0bdf3a53-275c-4001-b611-e41331286eb1"/>
@@ -4450,10 +4430,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="64cee142-9623-4b63-8ea8-1d4facd6545a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0bdf3a53-275c-4001-b611-e41331286eb1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C094DEF4-EC90-43B8-9BD8-CA2179F2E790}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51543AC5-E93B-4960-86D0-CA14017C79AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0bdf3a53-275c-4001-b611-e41331286eb1"/>
+    <ds:schemaRef ds:uri="64cee142-9623-4b63-8ea8-1d4facd6545a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4470,20 +4481,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51543AC5-E93B-4960-86D0-CA14017C79AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C094DEF4-EC90-43B8-9BD8-CA2179F2E790}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0bdf3a53-275c-4001-b611-e41331286eb1"/>
-    <ds:schemaRef ds:uri="64cee142-9623-4b63-8ea8-1d4facd6545a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>